--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_13_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_13_23.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>562782.3288667959</v>
+        <v>565316.5077179124</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9358005.011829004</v>
+        <v>9358005.011829</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15474582.95252041</v>
+        <v>15474582.95252042</v>
       </c>
     </row>
     <row r="9">
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>48.17692151102388</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>48.17692151102388</v>
+        <v>42.43423246690982</v>
       </c>
       <c r="U11" t="n">
         <v>48.17692151102388</v>
       </c>
       <c r="V11" t="n">
-        <v>42.43423246690983</v>
+        <v>48.17692151102388</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>48.17692151102388</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1452,58 +1452,58 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>42.43423246690983</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>48.17692151102388</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>48.17692151102388</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>48.17692151102388</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>48.17692151102388</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>42.43423246690983</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>48.17692151102388</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>48.17692151102388</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.64305289932861</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>48.17692151102388</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>48.17692151102388</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>48.17692151102388</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>11.64305289932861</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>48.17692151102388</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>48.17692151102388</v>
       </c>
       <c r="T14" t="n">
         <v>48.17692151102388</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>42.43423246690983</v>
       </c>
       <c r="V14" t="n">
-        <v>42.43423246690983</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>48.17692151102388</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1689,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>42.43423246690983</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>48.17692151102388</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>48.17692151102388</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1737,13 +1737,13 @@
         <v>48.17692151102388</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>48.17692151102388</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>48.17692151102388</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>42.43423246690983</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>13.21133244060712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>48.17692151102388</v>
       </c>
       <c r="I16" t="n">
         <v>48.17692151102388</v>
@@ -1807,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>30.79117956758122</v>
       </c>
       <c r="R16" t="n">
-        <v>44.00251200818833</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>48.17692151102388</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>57.26863164484233</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>50.83488543451239</v>
       </c>
       <c r="T17" t="n">
         <v>57.71444758686695</v>
@@ -1901,7 +1901,7 @@
         <v>57.71444758686695</v>
       </c>
       <c r="V17" t="n">
-        <v>51.28070137653702</v>
+        <v>57.71444758686695</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>57.71444758686695</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,10 +1974,10 @@
         <v>57.71444758686695</v>
       </c>
       <c r="T18" t="n">
-        <v>57.71444758686695</v>
+        <v>57.3625063854366</v>
       </c>
       <c r="U18" t="n">
-        <v>57.3625063854366</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2044,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>30.79117956758122</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.71444758686695</v>
       </c>
       <c r="S19" t="n">
-        <v>50.83488543451239</v>
+        <v>57.71444758686695</v>
       </c>
       <c r="T19" t="n">
         <v>57.71444758686695</v>
@@ -2059,16 +2059,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>20.04370586693117</v>
       </c>
       <c r="W19" t="n">
-        <v>57.71444758686695</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>57.71444758686695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>134.1518303913387</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>134.1518303913387</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>118.1609322086911</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>118.1609322086911</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>134.1518303913387</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>134.1518303913387</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>134.1518303913387</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2211,16 +2211,16 @@
         <v>134.1518303913387</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>134.1518303913387</v>
       </c>
       <c r="U21" t="n">
-        <v>134.1518303913387</v>
+        <v>118.1609322086911</v>
       </c>
       <c r="V21" t="n">
-        <v>134.1518303913387</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>118.1609322086911</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2239,61 +2239,61 @@
         <v>134.1518303913387</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>118.1609322086911</v>
+      </c>
+      <c r="H22" t="n">
         <v>134.1518303913387</v>
       </c>
-      <c r="D22" t="n">
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>134.1518303913387</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>118.1609322086911</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2324,13 +2324,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>167.7747848802885</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>167.7747848802885</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>167.7747848802885</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>167.7747848802885</v>
+        <v>147.776030522558</v>
       </c>
       <c r="T23" t="n">
-        <v>167.7747848802885</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>167.7747848802885</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>147.776030522558</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>167.7747848802885</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>51.18682663594274</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>167.7747848802885</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>96.58920388661532</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>167.7747848802885</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>167.7747848802885</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.572566188340441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>147.776030522558</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>167.7747848802885</v>
@@ -2542,7 +2542,7 @@
         <v>167.7747848802885</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>147.776030522558</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>167.7747848802885</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>147.776030522558</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>147.776030522558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,19 +2634,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>41.68067613024694</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.5547781328484</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>147.776030522558</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>167.7747848802885</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>167.7747848802885</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>167.7747848802885</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>167.7747848802885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>167.7747848802885</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>166.9353423846341</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,16 +2725,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3297270508643</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.3480383544635</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>135.5648146225089</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>46.6086419697454</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>30.79117956758122</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>114.4579835982601</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>167.7747848802885</v>
       </c>
     </row>
     <row r="29">
@@ -2792,19 +2792,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>167.7747848802885</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>90.50739887771573</v>
-      </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>167.7747848802885</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>147.776030522558</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>57.26863164484233</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>167.7747848802885</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,67 +2868,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>147.776030522558</v>
       </c>
       <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
         <v>167.7747848802885</v>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>149.0176317529792</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>167.7747848802885</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2950,28 +2950,28 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>43.30017442484639</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3297270508643</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>135.5648146225089</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>46.6086419697454</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2992,16 +2992,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>30.79117956758122</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>147.5610830738774</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>167.7747848802885</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>122.799881049422</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,23 +3026,23 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>167.7747848802885</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>147.776030522558</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>167.7747848802885</v>
       </c>
-      <c r="E32" t="n">
+      <c r="G32" t="n">
         <v>167.7747848802885</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
@@ -3080,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>147.776030522558</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>167.7747848802885</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>167.7747848802885</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>104.6178857064192</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>43.15814481613886</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3168,10 +3168,10 @@
         <v>167.7747848802885</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>167.7747848802885</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>147.776030522558</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>167.4633061662948</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3297270508643</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>167.7747848802885</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>148.2210883519822</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>167.7747848802885</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>167.7747848802885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>105.3417980556483</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3275,16 +3275,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>48.07316641080595</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>119.5978633692647</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>119.5978633692647</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,22 +3311,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>57.26863164484233</v>
       </c>
       <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>119.5978633692647</v>
-      </c>
-      <c r="T35" t="n">
-        <v>119.5978633692647</v>
-      </c>
-      <c r="U35" t="n">
-        <v>119.5978633692647</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
         <v>119.5978633692647</v>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>105.3417980556483</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>119.5978633692647</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>119.5978633692647</v>
       </c>
       <c r="X36" t="n">
-        <v>105.3417980556483</v>
+        <v>119.5978633692647</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3436,61 +3436,61 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>119.5978633692647</v>
       </c>
-      <c r="H37" t="n">
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>119.5978633692647</v>
       </c>
-      <c r="I37" t="n">
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>119.5978633692647</v>
       </c>
-      <c r="J37" t="n">
-        <v>46.6086419697454</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>30.79117956758122</v>
-      </c>
-      <c r="R37" t="n">
-        <v>27.94197651832169</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>105.3417980556483</v>
       </c>
     </row>
     <row r="38">
@@ -3503,64 +3503,64 @@
         <v>119.5978633692647</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
         <v>119.5978633692647</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
+      <c r="U38" t="n">
         <v>119.5978633692647</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>105.3417980556483</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>105.3417980556483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,28 +3579,28 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
         <v>119.5978633692647</v>
       </c>
-      <c r="C39" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6.894462671239005</v>
+      </c>
+      <c r="G39" t="n">
         <v>119.5978633692647</v>
       </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>119.5978633692647</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>104.6178857064192</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>62.24048641131209</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>51.18682663594274</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>105.3417980556483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3670,58 +3670,58 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>58.73315608590291</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>119.5978633692647</v>
       </c>
-      <c r="H40" t="n">
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>105.3417980556483</v>
+      </c>
+      <c r="V40" t="n">
         <v>119.5978633692647</v>
       </c>
-      <c r="I40" t="n">
+      <c r="W40" t="n">
         <v>119.5978633692647</v>
-      </c>
-      <c r="J40" t="n">
-        <v>46.6086419697454</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
         <v>110.0603372934218</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>110.0603372934218</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>110.0603372934218</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3822,19 +3822,19 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>110.0603372934218</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>110.0603372934218</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>104.6178857064192</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,25 +3864,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>51.18682663594274</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>110.0603372934218</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>110.0603372934218</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>110.0603372934218</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>45.75431845210309</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>102.3835966750485</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3898,73 +3898,73 @@
         <v>110.0603372934218</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>110.0603372934218</v>
       </c>
       <c r="D43" t="n">
+        <v>96.94114508804591</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>110.0603372934218</v>
-      </c>
-      <c r="E43" t="n">
-        <v>96.94114508804591</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>110.0603372934218</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3989,49 +3989,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
         <v>33.62295448895003</v>
       </c>
-      <c r="H44" t="n">
+      <c r="S44" t="n">
         <v>33.62295448895003</v>
       </c>
-      <c r="I44" t="n">
+      <c r="T44" t="n">
         <v>33.62295448895003</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>29.61509831386718</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>29.61509831386718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>33.62295448895003</v>
+        <v>29.61509831386718</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4065,16 +4065,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>29.61509831386718</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>33.62295448895003</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>33.62295448895003</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>33.62295448895003</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>33.62295448895003</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4147,46 +4147,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>29.61509831386718</v>
       </c>
-      <c r="H46" t="n">
+      <c r="R46" t="n">
         <v>33.62295448895003</v>
       </c>
-      <c r="I46" t="n">
+      <c r="S46" t="n">
         <v>33.62295448895003</v>
       </c>
-      <c r="J46" t="n">
+      <c r="T46" t="n">
         <v>33.62295448895003</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -5039,25 +5039,25 @@
         <v>3.854153720881911</v>
       </c>
       <c r="J11" t="n">
+        <v>3.854153720881911</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.854153720881911</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.854153720881911</v>
+      </c>
+      <c r="M11" t="n">
         <v>51.54930601679555</v>
       </c>
-      <c r="K11" t="n">
-        <v>51.54930601679555</v>
-      </c>
-      <c r="L11" t="n">
-        <v>51.54930601679555</v>
-      </c>
-      <c r="M11" t="n">
-        <v>97.31738145226826</v>
-      </c>
       <c r="N11" t="n">
+        <v>99.2444583127092</v>
+      </c>
+      <c r="O11" t="n">
         <v>145.0125337481819</v>
       </c>
-      <c r="O11" t="n">
-        <v>192.7076860440955</v>
-      </c>
       <c r="P11" t="n">
-        <v>192.7076860440955</v>
+        <v>145.0125337481819</v>
       </c>
       <c r="Q11" t="n">
         <v>192.7076860440955</v>
@@ -5066,16 +5066,16 @@
         <v>192.7076860440955</v>
       </c>
       <c r="S11" t="n">
-        <v>144.0441289622532</v>
+        <v>192.7076860440955</v>
       </c>
       <c r="T11" t="n">
-        <v>95.38057188041093</v>
+        <v>149.8448249664089</v>
       </c>
       <c r="U11" t="n">
-        <v>46.71701479856861</v>
+        <v>101.1812678845665</v>
       </c>
       <c r="V11" t="n">
-        <v>3.854153720881911</v>
+        <v>52.51771080272422</v>
       </c>
       <c r="W11" t="n">
         <v>3.854153720881911</v>
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>144.0441289622532</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="C12" t="n">
-        <v>144.0441289622532</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="D12" t="n">
-        <v>101.1812678845665</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="E12" t="n">
-        <v>52.51771080272422</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="F12" t="n">
-        <v>52.51771080272422</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="G12" t="n">
-        <v>52.51771080272422</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="H12" t="n">
         <v>3.854153720881911</v>
@@ -5142,28 +5142,28 @@
         <v>192.7076860440955</v>
       </c>
       <c r="R12" t="n">
-        <v>192.7076860440955</v>
+        <v>144.0441289622532</v>
       </c>
       <c r="S12" t="n">
-        <v>144.0441289622532</v>
+        <v>95.38057188041093</v>
       </c>
       <c r="T12" t="n">
-        <v>144.0441289622532</v>
+        <v>46.71701479856861</v>
       </c>
       <c r="U12" t="n">
-        <v>144.0441289622532</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="V12" t="n">
-        <v>144.0441289622532</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="W12" t="n">
-        <v>144.0441289622532</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="X12" t="n">
-        <v>144.0441289622532</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="Y12" t="n">
-        <v>144.0441289622532</v>
+        <v>3.854153720881911</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.9419273788379</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="C13" t="n">
-        <v>112.9419273788379</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="D13" t="n">
-        <v>112.9419273788379</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="E13" t="n">
-        <v>112.9419273788379</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="F13" t="n">
-        <v>112.9419273788379</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="G13" t="n">
-        <v>112.9419273788379</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="H13" t="n">
-        <v>64.27837029699555</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="I13" t="n">
-        <v>15.61481321515323</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="J13" t="n">
         <v>3.854153720881911</v>
@@ -5206,13 +5206,13 @@
         <v>99.2444583127092</v>
       </c>
       <c r="M13" t="n">
-        <v>146.9396106086228</v>
+        <v>145.0125337481819</v>
       </c>
       <c r="N13" t="n">
-        <v>192.7076860440955</v>
+        <v>145.0125337481819</v>
       </c>
       <c r="O13" t="n">
-        <v>192.7076860440955</v>
+        <v>145.0125337481819</v>
       </c>
       <c r="P13" t="n">
         <v>192.7076860440955</v>
@@ -5224,25 +5224,25 @@
         <v>112.9419273788379</v>
       </c>
       <c r="S13" t="n">
-        <v>112.9419273788379</v>
+        <v>64.27837029699555</v>
       </c>
       <c r="T13" t="n">
-        <v>112.9419273788379</v>
+        <v>15.61481321515323</v>
       </c>
       <c r="U13" t="n">
-        <v>112.9419273788379</v>
+        <v>15.61481321515323</v>
       </c>
       <c r="V13" t="n">
-        <v>112.9419273788379</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="W13" t="n">
-        <v>112.9419273788379</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="X13" t="n">
-        <v>112.9419273788379</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="Y13" t="n">
-        <v>112.9419273788379</v>
+        <v>3.854153720881911</v>
       </c>
     </row>
     <row r="14">
@@ -5276,25 +5276,25 @@
         <v>3.854153720881911</v>
       </c>
       <c r="J14" t="n">
-        <v>3.854153720881911</v>
+        <v>51.54930601679555</v>
       </c>
       <c r="K14" t="n">
-        <v>3.854153720881911</v>
+        <v>99.2444583127092</v>
       </c>
       <c r="L14" t="n">
-        <v>3.854153720881911</v>
+        <v>99.2444583127092</v>
       </c>
       <c r="M14" t="n">
-        <v>45.93420729137242</v>
+        <v>127.4608048910176</v>
       </c>
       <c r="N14" t="n">
-        <v>79.22093223543295</v>
+        <v>160.7475298350782</v>
       </c>
       <c r="O14" t="n">
-        <v>97.31738145226826</v>
+        <v>192.7076860440955</v>
       </c>
       <c r="P14" t="n">
-        <v>145.0125337481819</v>
+        <v>192.7076860440955</v>
       </c>
       <c r="Q14" t="n">
         <v>192.7076860440955</v>
@@ -5303,16 +5303,16 @@
         <v>144.0441289622532</v>
       </c>
       <c r="S14" t="n">
-        <v>144.0441289622532</v>
+        <v>95.38057188041093</v>
       </c>
       <c r="T14" t="n">
-        <v>95.38057188041093</v>
+        <v>46.71701479856861</v>
       </c>
       <c r="U14" t="n">
-        <v>95.38057188041093</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="V14" t="n">
-        <v>52.51771080272422</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="W14" t="n">
         <v>3.854153720881911</v>
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>144.0441289622532</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="C15" t="n">
-        <v>144.0441289622532</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="D15" t="n">
-        <v>101.1812678845665</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="E15" t="n">
-        <v>52.51771080272422</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="F15" t="n">
-        <v>52.51771080272422</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="G15" t="n">
-        <v>52.51771080272422</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="H15" t="n">
         <v>3.854153720881911</v>
@@ -5361,19 +5361,19 @@
         <v>3.854153720881911</v>
       </c>
       <c r="L15" t="n">
-        <v>36.22944248047864</v>
+        <v>36.22944248047852</v>
       </c>
       <c r="M15" t="n">
-        <v>83.92459477639228</v>
+        <v>83.92459477639215</v>
       </c>
       <c r="N15" t="n">
-        <v>131.6197470723059</v>
+        <v>131.6197470723058</v>
       </c>
       <c r="O15" t="n">
-        <v>176.2339340120389</v>
+        <v>176.2339340120388</v>
       </c>
       <c r="P15" t="n">
-        <v>192.7076860440955</v>
+        <v>192.7076860440954</v>
       </c>
       <c r="Q15" t="n">
         <v>192.7076860440955</v>
@@ -5385,22 +5385,22 @@
         <v>144.0441289622532</v>
       </c>
       <c r="T15" t="n">
-        <v>144.0441289622532</v>
+        <v>95.38057188041093</v>
       </c>
       <c r="U15" t="n">
-        <v>144.0441289622532</v>
+        <v>46.71701479856861</v>
       </c>
       <c r="V15" t="n">
-        <v>144.0441289622532</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="W15" t="n">
-        <v>144.0441289622532</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="X15" t="n">
-        <v>144.0441289622532</v>
+        <v>3.854153720881911</v>
       </c>
       <c r="Y15" t="n">
-        <v>144.0441289622532</v>
+        <v>3.854153720881911</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.59714713580038</v>
+        <v>161.6054844606802</v>
       </c>
       <c r="C16" t="n">
-        <v>99.59714713580038</v>
+        <v>161.6054844606802</v>
       </c>
       <c r="D16" t="n">
-        <v>99.59714713580038</v>
+        <v>161.6054844606802</v>
       </c>
       <c r="E16" t="n">
-        <v>99.59714713580038</v>
+        <v>161.6054844606802</v>
       </c>
       <c r="F16" t="n">
-        <v>99.59714713580038</v>
+        <v>161.6054844606802</v>
       </c>
       <c r="G16" t="n">
-        <v>99.59714713580038</v>
+        <v>148.2607042176427</v>
       </c>
       <c r="H16" t="n">
         <v>99.59714713580038</v>
@@ -5455,31 +5455,31 @@
         <v>192.7076860440955</v>
       </c>
       <c r="Q16" t="n">
-        <v>192.7076860440955</v>
+        <v>161.6054844606802</v>
       </c>
       <c r="R16" t="n">
-        <v>148.2607042176427</v>
+        <v>161.6054844606802</v>
       </c>
       <c r="S16" t="n">
-        <v>99.59714713580038</v>
+        <v>161.6054844606802</v>
       </c>
       <c r="T16" t="n">
-        <v>99.59714713580038</v>
+        <v>161.6054844606802</v>
       </c>
       <c r="U16" t="n">
-        <v>99.59714713580038</v>
+        <v>161.6054844606802</v>
       </c>
       <c r="V16" t="n">
-        <v>99.59714713580038</v>
+        <v>161.6054844606802</v>
       </c>
       <c r="W16" t="n">
-        <v>99.59714713580038</v>
+        <v>161.6054844606802</v>
       </c>
       <c r="X16" t="n">
-        <v>99.59714713580038</v>
+        <v>161.6054844606802</v>
       </c>
       <c r="Y16" t="n">
-        <v>99.59714713580038</v>
+        <v>161.6054844606802</v>
       </c>
     </row>
     <row r="17">
@@ -5519,13 +5519,13 @@
         <v>118.8917620289459</v>
       </c>
       <c r="L17" t="n">
-        <v>151.2582696082636</v>
+        <v>118.8917620289459</v>
       </c>
       <c r="M17" t="n">
-        <v>179.474616186572</v>
+        <v>147.1081086072543</v>
       </c>
       <c r="N17" t="n">
-        <v>212.7613411306325</v>
+        <v>180.3948335513149</v>
       </c>
       <c r="O17" t="n">
         <v>230.8577903474678</v>
@@ -5537,16 +5537,16 @@
         <v>230.8577903474678</v>
       </c>
       <c r="R17" t="n">
-        <v>173.0106876759099</v>
+        <v>230.8577903474678</v>
       </c>
       <c r="S17" t="n">
-        <v>173.0106876759099</v>
+        <v>179.5094212216977</v>
       </c>
       <c r="T17" t="n">
-        <v>114.7132658709938</v>
+        <v>121.2119994167816</v>
       </c>
       <c r="U17" t="n">
-        <v>56.41584406607766</v>
+        <v>62.91457761186548</v>
       </c>
       <c r="V17" t="n">
         <v>4.617155806949357</v>
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.617155806949357</v>
+        <v>62.91457761186548</v>
       </c>
       <c r="C18" t="n">
-        <v>4.617155806949357</v>
+        <v>62.91457761186548</v>
       </c>
       <c r="D18" t="n">
-        <v>4.617155806949357</v>
+        <v>62.91457761186548</v>
       </c>
       <c r="E18" t="n">
-        <v>4.617155806949357</v>
+        <v>62.91457761186548</v>
       </c>
       <c r="F18" t="n">
-        <v>4.617155806949357</v>
+        <v>62.91457761186548</v>
       </c>
       <c r="G18" t="n">
-        <v>4.617155806949357</v>
+        <v>62.91457761186548</v>
       </c>
       <c r="H18" t="n">
-        <v>4.617155806949357</v>
+        <v>62.91457761186548</v>
       </c>
       <c r="I18" t="n">
         <v>4.617155806949357</v>
       </c>
       <c r="J18" t="n">
-        <v>23.11995639408502</v>
+        <v>4.617155806949357</v>
       </c>
       <c r="K18" t="n">
-        <v>23.11995639408502</v>
+        <v>4.617155806949357</v>
       </c>
       <c r="L18" t="n">
         <v>55.49524515368163</v>
@@ -5622,22 +5622,22 @@
         <v>120.8565032537206</v>
       </c>
       <c r="T18" t="n">
-        <v>62.55908144880451</v>
+        <v>62.91457761186548</v>
       </c>
       <c r="U18" t="n">
-        <v>4.617155806949357</v>
+        <v>62.91457761186548</v>
       </c>
       <c r="V18" t="n">
-        <v>4.617155806949357</v>
+        <v>62.91457761186548</v>
       </c>
       <c r="W18" t="n">
-        <v>4.617155806949357</v>
+        <v>62.91457761186548</v>
       </c>
       <c r="X18" t="n">
-        <v>4.617155806949357</v>
+        <v>62.91457761186548</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.617155806949357</v>
+        <v>62.91457761186548</v>
       </c>
     </row>
     <row r="19">
@@ -5674,46 +5674,46 @@
         <v>4.617155806949357</v>
       </c>
       <c r="K19" t="n">
-        <v>4.617155806949357</v>
+        <v>58.62759931883858</v>
       </c>
       <c r="L19" t="n">
-        <v>61.75445891794764</v>
+        <v>115.7649024298369</v>
       </c>
       <c r="M19" t="n">
-        <v>118.8917620289459</v>
+        <v>115.7649024298369</v>
       </c>
       <c r="N19" t="n">
-        <v>176.0290651399442</v>
+        <v>172.9022055408352</v>
       </c>
       <c r="O19" t="n">
-        <v>230.8577903474678</v>
+        <v>230.0395086518334</v>
       </c>
       <c r="P19" t="n">
         <v>230.8577903474678</v>
       </c>
       <c r="Q19" t="n">
-        <v>230.8577903474678</v>
+        <v>199.7555887640524</v>
       </c>
       <c r="R19" t="n">
-        <v>230.8577903474678</v>
+        <v>141.4581669591363</v>
       </c>
       <c r="S19" t="n">
-        <v>179.5094212216977</v>
+        <v>83.16074515422019</v>
       </c>
       <c r="T19" t="n">
-        <v>121.2119994167816</v>
+        <v>24.86332334930407</v>
       </c>
       <c r="U19" t="n">
-        <v>121.2119994167816</v>
+        <v>24.86332334930407</v>
       </c>
       <c r="V19" t="n">
-        <v>121.2119994167816</v>
+        <v>4.617155806949357</v>
       </c>
       <c r="W19" t="n">
-        <v>62.91457761186548</v>
+        <v>4.617155806949357</v>
       </c>
       <c r="X19" t="n">
-        <v>62.91457761186548</v>
+        <v>4.617155806949357</v>
       </c>
       <c r="Y19" t="n">
         <v>4.617155806949357</v>
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10.7321464313071</v>
+        <v>401.1004221801641</v>
       </c>
       <c r="C20" t="n">
-        <v>10.7321464313071</v>
+        <v>401.1004221801641</v>
       </c>
       <c r="D20" t="n">
-        <v>10.7321464313071</v>
+        <v>401.1004221801641</v>
       </c>
       <c r="E20" t="n">
-        <v>10.7321464313071</v>
+        <v>401.1004221801641</v>
       </c>
       <c r="F20" t="n">
-        <v>10.7321464313071</v>
+        <v>401.1004221801641</v>
       </c>
       <c r="G20" t="n">
-        <v>10.7321464313071</v>
+        <v>265.5935227949735</v>
       </c>
       <c r="H20" t="n">
-        <v>10.7321464313071</v>
+        <v>130.0866234097829</v>
       </c>
       <c r="I20" t="n">
         <v>10.7321464313071</v>
       </c>
       <c r="J20" t="n">
-        <v>10.7321464313071</v>
+        <v>122.7677035778391</v>
       </c>
       <c r="K20" t="n">
-        <v>10.7321464313071</v>
+        <v>255.5780156652644</v>
       </c>
       <c r="L20" t="n">
-        <v>143.5424585187324</v>
+        <v>255.5780156652644</v>
       </c>
       <c r="M20" t="n">
-        <v>276.3527706061577</v>
+        <v>283.7943622435729</v>
       </c>
       <c r="N20" t="n">
-        <v>409.163082693583</v>
+        <v>416.6046743309982</v>
       </c>
       <c r="O20" t="n">
-        <v>427.2595319104183</v>
+        <v>536.6073215653547</v>
       </c>
       <c r="P20" t="n">
         <v>536.6073215653547</v>
@@ -5780,22 +5780,22 @@
         <v>536.6073215653547</v>
       </c>
       <c r="T20" t="n">
-        <v>417.2528445868789</v>
+        <v>536.6073215653547</v>
       </c>
       <c r="U20" t="n">
-        <v>281.7459452016883</v>
+        <v>536.6073215653547</v>
       </c>
       <c r="V20" t="n">
-        <v>281.7459452016883</v>
+        <v>536.6073215653547</v>
       </c>
       <c r="W20" t="n">
-        <v>146.2390458164977</v>
+        <v>536.6073215653547</v>
       </c>
       <c r="X20" t="n">
-        <v>146.2390458164977</v>
+        <v>536.6073215653547</v>
       </c>
       <c r="Y20" t="n">
-        <v>146.2390458164977</v>
+        <v>401.1004221801641</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10.7321464313071</v>
+        <v>146.2390458164977</v>
       </c>
       <c r="C21" t="n">
         <v>10.7321464313071</v>
@@ -5829,22 +5829,22 @@
         <v>10.7321464313071</v>
       </c>
       <c r="J21" t="n">
-        <v>83.76637706437501</v>
+        <v>10.7321464313071</v>
       </c>
       <c r="K21" t="n">
-        <v>83.76637706437501</v>
+        <v>143.5424585187324</v>
       </c>
       <c r="L21" t="n">
-        <v>169.2352073397728</v>
+        <v>175.917747278329</v>
       </c>
       <c r="M21" t="n">
-        <v>226.3725104507711</v>
+        <v>308.7280593657543</v>
       </c>
       <c r="N21" t="n">
-        <v>359.1828225381964</v>
+        <v>381.7862617884964</v>
       </c>
       <c r="O21" t="n">
-        <v>403.7970094779294</v>
+        <v>426.4004487282294</v>
       </c>
       <c r="P21" t="n">
         <v>536.6073215653547</v>
@@ -5859,22 +5859,22 @@
         <v>401.1004221801641</v>
       </c>
       <c r="T21" t="n">
-        <v>401.1004221801641</v>
+        <v>265.5935227949735</v>
       </c>
       <c r="U21" t="n">
-        <v>265.5935227949735</v>
+        <v>146.2390458164977</v>
       </c>
       <c r="V21" t="n">
-        <v>130.0866234097829</v>
+        <v>146.2390458164977</v>
       </c>
       <c r="W21" t="n">
-        <v>10.7321464313071</v>
+        <v>146.2390458164977</v>
       </c>
       <c r="X21" t="n">
-        <v>10.7321464313071</v>
+        <v>146.2390458164977</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.7321464313071</v>
+        <v>146.2390458164977</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>281.7459452016883</v>
+        <v>265.5935227949735</v>
       </c>
       <c r="C22" t="n">
+        <v>265.5935227949735</v>
+      </c>
+      <c r="D22" t="n">
+        <v>265.5935227949735</v>
+      </c>
+      <c r="E22" t="n">
+        <v>265.5935227949735</v>
+      </c>
+      <c r="F22" t="n">
+        <v>265.5935227949735</v>
+      </c>
+      <c r="G22" t="n">
         <v>146.2390458164977</v>
-      </c>
-      <c r="D22" t="n">
-        <v>10.7321464313071</v>
-      </c>
-      <c r="E22" t="n">
-        <v>10.7321464313071</v>
-      </c>
-      <c r="F22" t="n">
-        <v>10.7321464313071</v>
-      </c>
-      <c r="G22" t="n">
-        <v>10.7321464313071</v>
       </c>
       <c r="H22" t="n">
         <v>10.7321464313071</v>
@@ -5911,13 +5911,13 @@
         <v>10.7321464313071</v>
       </c>
       <c r="K22" t="n">
-        <v>10.7321464313071</v>
+        <v>64.74258994319632</v>
       </c>
       <c r="L22" t="n">
-        <v>77.63558287492549</v>
+        <v>189.3837970965055</v>
       </c>
       <c r="M22" t="n">
-        <v>210.4458949623508</v>
+        <v>322.1941091839308</v>
       </c>
       <c r="N22" t="n">
         <v>343.2562070497761</v>
@@ -5935,25 +5935,25 @@
         <v>536.6073215653547</v>
       </c>
       <c r="S22" t="n">
-        <v>417.2528445868789</v>
+        <v>536.6073215653547</v>
       </c>
       <c r="T22" t="n">
-        <v>417.2528445868789</v>
+        <v>536.6073215653547</v>
       </c>
       <c r="U22" t="n">
-        <v>417.2528445868789</v>
+        <v>401.1004221801641</v>
       </c>
       <c r="V22" t="n">
-        <v>417.2528445868789</v>
+        <v>401.1004221801641</v>
       </c>
       <c r="W22" t="n">
-        <v>417.2528445868789</v>
+        <v>401.1004221801641</v>
       </c>
       <c r="X22" t="n">
-        <v>417.2528445868789</v>
+        <v>401.1004221801641</v>
       </c>
       <c r="Y22" t="n">
-        <v>417.2528445868789</v>
+        <v>401.1004221801641</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.42198279042308</v>
+        <v>521.8304218216003</v>
       </c>
       <c r="C23" t="n">
-        <v>13.42198279042308</v>
+        <v>521.8304218216003</v>
       </c>
       <c r="D23" t="n">
-        <v>13.42198279042308</v>
+        <v>521.8304218216003</v>
       </c>
       <c r="E23" t="n">
-        <v>13.42198279042308</v>
+        <v>352.3609421445412</v>
       </c>
       <c r="F23" t="n">
-        <v>13.42198279042308</v>
+        <v>182.8914624674821</v>
       </c>
       <c r="G23" t="n">
         <v>13.42198279042308</v>
@@ -5987,25 +5987,25 @@
         <v>13.42198279042308</v>
       </c>
       <c r="J23" t="n">
-        <v>13.42198279042308</v>
+        <v>125.4575399369551</v>
       </c>
       <c r="K23" t="n">
-        <v>13.42198279042308</v>
+        <v>291.5545769684407</v>
       </c>
       <c r="L23" t="n">
-        <v>13.42198279042308</v>
+        <v>443.4990309672994</v>
       </c>
       <c r="M23" t="n">
-        <v>179.5190198219087</v>
+        <v>471.7153775456078</v>
       </c>
       <c r="N23" t="n">
-        <v>339.1968967019654</v>
+        <v>505.0021024896683</v>
       </c>
       <c r="O23" t="n">
-        <v>357.2933459188007</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="P23" t="n">
-        <v>523.3903829502863</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="Q23" t="n">
         <v>671.0991395211539</v>
@@ -6014,25 +6014,25 @@
         <v>671.0991395211539</v>
       </c>
       <c r="S23" t="n">
-        <v>501.6296598440948</v>
+        <v>521.8304218216003</v>
       </c>
       <c r="T23" t="n">
-        <v>332.1601801670357</v>
+        <v>521.8304218216003</v>
       </c>
       <c r="U23" t="n">
-        <v>162.6907004899766</v>
+        <v>521.8304218216003</v>
       </c>
       <c r="V23" t="n">
-        <v>13.42198279042308</v>
+        <v>521.8304218216003</v>
       </c>
       <c r="W23" t="n">
-        <v>13.42198279042308</v>
+        <v>521.8304218216003</v>
       </c>
       <c r="X23" t="n">
-        <v>13.42198279042308</v>
+        <v>521.8304218216003</v>
       </c>
       <c r="Y23" t="n">
-        <v>13.42198279042308</v>
+        <v>521.8304218216003</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>331.8258721287334</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="C24" t="n">
-        <v>162.3563924516743</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="D24" t="n">
         <v>13.42198279042308</v>
@@ -6066,52 +6066,52 @@
         <v>13.42198279042308</v>
       </c>
       <c r="J24" t="n">
-        <v>86.45621342349098</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="K24" t="n">
-        <v>86.45621342349098</v>
+        <v>179.5190198219087</v>
       </c>
       <c r="L24" t="n">
-        <v>164.0953729847093</v>
+        <v>345.6160568533943</v>
       </c>
       <c r="M24" t="n">
-        <v>221.2326760957076</v>
+        <v>402.7533599643926</v>
       </c>
       <c r="N24" t="n">
-        <v>294.2908785184497</v>
+        <v>475.8115623871347</v>
       </c>
       <c r="O24" t="n">
-        <v>338.9050654581828</v>
+        <v>520.4257493268677</v>
       </c>
       <c r="P24" t="n">
-        <v>505.0021024896683</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="Q24" t="n">
         <v>671.0991395211539</v>
       </c>
       <c r="R24" t="n">
-        <v>671.0991395211539</v>
+        <v>619.3952742323229</v>
       </c>
       <c r="S24" t="n">
-        <v>671.0991395211539</v>
+        <v>619.3952742323229</v>
       </c>
       <c r="T24" t="n">
-        <v>671.0991395211539</v>
+        <v>619.3952742323229</v>
       </c>
       <c r="U24" t="n">
-        <v>501.6296598440948</v>
+        <v>449.9257945552638</v>
       </c>
       <c r="V24" t="n">
-        <v>501.6296598440948</v>
+        <v>352.3609421445412</v>
       </c>
       <c r="W24" t="n">
-        <v>501.6296598440948</v>
+        <v>182.8914624674821</v>
       </c>
       <c r="X24" t="n">
-        <v>501.6296598440948</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="Y24" t="n">
-        <v>500.0412091488014</v>
+        <v>13.42198279042308</v>
       </c>
     </row>
     <row r="25">
@@ -6148,13 +6148,13 @@
         <v>13.42198279042308</v>
       </c>
       <c r="K25" t="n">
-        <v>67.43242630231224</v>
+        <v>67.43242630231214</v>
       </c>
       <c r="L25" t="n">
         <v>192.0736334556215</v>
       </c>
       <c r="M25" t="n">
-        <v>333.879433506503</v>
+        <v>333.8794335065031</v>
       </c>
       <c r="N25" t="n">
         <v>477.7480250055753</v>
@@ -6178,16 +6178,16 @@
         <v>671.0991395211539</v>
       </c>
       <c r="U25" t="n">
-        <v>521.8304218216003</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="V25" t="n">
-        <v>352.3609421445412</v>
+        <v>501.6296598440948</v>
       </c>
       <c r="W25" t="n">
-        <v>182.8914624674821</v>
+        <v>332.1601801670357</v>
       </c>
       <c r="X25" t="n">
-        <v>13.42198279042308</v>
+        <v>162.6907004899766</v>
       </c>
       <c r="Y25" t="n">
         <v>13.42198279042308</v>
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>352.3609421445412</v>
+        <v>501.6296598440948</v>
       </c>
       <c r="C26" t="n">
-        <v>182.8914624674821</v>
+        <v>332.1601801670357</v>
       </c>
       <c r="D26" t="n">
-        <v>13.42198279042308</v>
+        <v>162.6907004899766</v>
       </c>
       <c r="E26" t="n">
         <v>13.42198279042308</v>
@@ -6227,7 +6227,7 @@
         <v>125.4575399369551</v>
       </c>
       <c r="K26" t="n">
-        <v>125.4575399369551</v>
+        <v>291.5545769684407</v>
       </c>
       <c r="L26" t="n">
         <v>291.5545769684407</v>
@@ -6236,13 +6236,13 @@
         <v>457.6516139999263</v>
       </c>
       <c r="N26" t="n">
-        <v>623.7486510314119</v>
+        <v>490.9383389439869</v>
       </c>
       <c r="O26" t="n">
-        <v>671.0991395211539</v>
+        <v>523.3903829502863</v>
       </c>
       <c r="P26" t="n">
-        <v>671.0991395211539</v>
+        <v>523.3903829502863</v>
       </c>
       <c r="Q26" t="n">
         <v>671.0991395211539</v>
@@ -6269,7 +6269,7 @@
         <v>671.0991395211539</v>
       </c>
       <c r="Y26" t="n">
-        <v>521.8304218216003</v>
+        <v>671.0991395211539</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>501.6296598440948</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="C27" t="n">
-        <v>459.5279667832393</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="D27" t="n">
-        <v>310.5935571219881</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="E27" t="n">
-        <v>151.3561021165326</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="F27" t="n">
-        <v>151.3561021165326</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="G27" t="n">
         <v>13.42198279042308</v>
@@ -6306,22 +6306,22 @@
         <v>86.45621342349098</v>
       </c>
       <c r="K27" t="n">
-        <v>86.45621342349098</v>
+        <v>252.5532504549766</v>
       </c>
       <c r="L27" t="n">
-        <v>252.5532504549766</v>
+        <v>330.1924100161949</v>
       </c>
       <c r="M27" t="n">
-        <v>309.6905535659749</v>
+        <v>387.3297131271932</v>
       </c>
       <c r="N27" t="n">
-        <v>382.748755988717</v>
+        <v>460.3879155499353</v>
       </c>
       <c r="O27" t="n">
-        <v>427.36294292845</v>
+        <v>505.0021024896683</v>
       </c>
       <c r="P27" t="n">
-        <v>505.0021024896683</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="Q27" t="n">
         <v>671.0991395211539</v>
@@ -6330,25 +6330,25 @@
         <v>671.0991395211539</v>
       </c>
       <c r="S27" t="n">
-        <v>671.0991395211539</v>
+        <v>521.8304218216003</v>
       </c>
       <c r="T27" t="n">
-        <v>671.0991395211539</v>
+        <v>521.8304218216003</v>
       </c>
       <c r="U27" t="n">
-        <v>671.0991395211539</v>
+        <v>352.3609421445412</v>
       </c>
       <c r="V27" t="n">
-        <v>671.0991395211539</v>
+        <v>182.8914624674821</v>
       </c>
       <c r="W27" t="n">
-        <v>671.0991395211539</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="X27" t="n">
-        <v>671.0991395211539</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="Y27" t="n">
-        <v>501.6296598440948</v>
+        <v>13.42198279042308</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>524.3828130910111</v>
+        <v>332.1601801670357</v>
       </c>
       <c r="C28" t="n">
-        <v>524.3828130910111</v>
+        <v>163.5386222027588</v>
       </c>
       <c r="D28" t="n">
-        <v>524.3828130910111</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="E28" t="n">
-        <v>524.3828130910111</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="F28" t="n">
-        <v>524.3828130910111</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="G28" t="n">
-        <v>355.3628867770068</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="H28" t="n">
-        <v>197.4355753078517</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="I28" t="n">
-        <v>60.50141912349925</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="J28" t="n">
         <v>13.42198279042308</v>
       </c>
       <c r="K28" t="n">
-        <v>67.43242630231224</v>
+        <v>67.43242630231229</v>
       </c>
       <c r="L28" t="n">
         <v>192.0736334556215</v>
@@ -6403,31 +6403,31 @@
         <v>671.0991395211539</v>
       </c>
       <c r="Q28" t="n">
-        <v>639.9969379377385</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="R28" t="n">
-        <v>524.3828130910111</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="S28" t="n">
-        <v>524.3828130910111</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="T28" t="n">
-        <v>524.3828130910111</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="U28" t="n">
-        <v>524.3828130910111</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="V28" t="n">
-        <v>524.3828130910111</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="W28" t="n">
-        <v>524.3828130910111</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="X28" t="n">
-        <v>524.3828130910111</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="Y28" t="n">
-        <v>524.3828130910111</v>
+        <v>501.6296598440948</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>274.3130774954778</v>
+        <v>501.6296598440948</v>
       </c>
       <c r="C29" t="n">
-        <v>104.8435978184188</v>
+        <v>501.6296598440948</v>
       </c>
       <c r="D29" t="n">
-        <v>104.8435978184188</v>
+        <v>501.6296598440948</v>
       </c>
       <c r="E29" t="n">
-        <v>13.42198279042308</v>
+        <v>332.1601801670357</v>
       </c>
       <c r="F29" t="n">
-        <v>13.42198279042308</v>
+        <v>162.6907004899766</v>
       </c>
       <c r="G29" t="n">
         <v>13.42198279042308</v>
@@ -6467,46 +6467,46 @@
         <v>13.42198279042308</v>
       </c>
       <c r="L29" t="n">
-        <v>179.5190198219087</v>
+        <v>172.8080284266972</v>
       </c>
       <c r="M29" t="n">
-        <v>345.6160568533943</v>
+        <v>338.9050654581828</v>
       </c>
       <c r="N29" t="n">
-        <v>378.9027817974548</v>
+        <v>505.0021024896683</v>
       </c>
       <c r="O29" t="n">
-        <v>523.3903829502863</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="P29" t="n">
-        <v>523.3903829502863</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="Q29" t="n">
         <v>671.0991395211539</v>
       </c>
       <c r="R29" t="n">
-        <v>613.252036849596</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="S29" t="n">
-        <v>613.252036849596</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="T29" t="n">
-        <v>613.252036849596</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="U29" t="n">
-        <v>443.7825571725369</v>
+        <v>501.6296598440948</v>
       </c>
       <c r="V29" t="n">
-        <v>443.7825571725369</v>
+        <v>501.6296598440948</v>
       </c>
       <c r="W29" t="n">
-        <v>274.3130774954778</v>
+        <v>501.6296598440948</v>
       </c>
       <c r="X29" t="n">
-        <v>274.3130774954778</v>
+        <v>501.6296598440948</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.3130774954778</v>
+        <v>501.6296598440948</v>
       </c>
     </row>
     <row r="30">
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>182.8914624674821</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="C30" t="n">
         <v>13.42198279042308</v>
@@ -6540,25 +6540,25 @@
         <v>13.42198279042308</v>
       </c>
       <c r="J30" t="n">
-        <v>13.42198279042308</v>
+        <v>86.45621342349098</v>
       </c>
       <c r="K30" t="n">
-        <v>13.42198279042308</v>
+        <v>252.5532504549766</v>
       </c>
       <c r="L30" t="n">
-        <v>45.79727155001969</v>
+        <v>284.9285392145732</v>
       </c>
       <c r="M30" t="n">
-        <v>102.934574661018</v>
+        <v>342.0658423255715</v>
       </c>
       <c r="N30" t="n">
-        <v>175.9927770837601</v>
+        <v>415.1240447483136</v>
       </c>
       <c r="O30" t="n">
-        <v>338.9050654581828</v>
+        <v>505.0021024896683</v>
       </c>
       <c r="P30" t="n">
-        <v>505.0021024896683</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="Q30" t="n">
         <v>671.0991395211539</v>
@@ -6567,25 +6567,25 @@
         <v>671.0991395211539</v>
       </c>
       <c r="S30" t="n">
-        <v>520.5762791646092</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="T30" t="n">
-        <v>520.5762791646092</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="U30" t="n">
-        <v>520.5762791646092</v>
+        <v>501.6296598440948</v>
       </c>
       <c r="V30" t="n">
-        <v>520.5762791646092</v>
+        <v>332.1601801670357</v>
       </c>
       <c r="W30" t="n">
-        <v>520.5762791646092</v>
+        <v>332.1601801670357</v>
       </c>
       <c r="X30" t="n">
-        <v>520.5762791646092</v>
+        <v>332.1601801670357</v>
       </c>
       <c r="Y30" t="n">
-        <v>351.1067994875502</v>
+        <v>162.6907004899766</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>197.4355753078517</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="C31" t="n">
-        <v>197.4355753078517</v>
+        <v>627.3615895970667</v>
       </c>
       <c r="D31" t="n">
-        <v>197.4355753078517</v>
+        <v>477.2449501847309</v>
       </c>
       <c r="E31" t="n">
-        <v>197.4355753078517</v>
+        <v>329.3318566023378</v>
       </c>
       <c r="F31" t="n">
-        <v>197.4355753078517</v>
+        <v>182.4419091044274</v>
       </c>
       <c r="G31" t="n">
-        <v>197.4355753078517</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="H31" t="n">
-        <v>197.4355753078517</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="I31" t="n">
-        <v>60.50141912349925</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="J31" t="n">
         <v>13.42198279042308</v>
@@ -6628,7 +6628,7 @@
         <v>192.0736334556215</v>
       </c>
       <c r="M31" t="n">
-        <v>333.879433506503</v>
+        <v>333.8794335065031</v>
       </c>
       <c r="N31" t="n">
         <v>477.7480250055753</v>
@@ -6640,31 +6640,31 @@
         <v>671.0991395211539</v>
       </c>
       <c r="Q31" t="n">
-        <v>639.9969379377385</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="R31" t="n">
-        <v>490.9453388732159</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="S31" t="n">
-        <v>321.4758591961568</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="T31" t="n">
-        <v>197.4355753078517</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="U31" t="n">
-        <v>197.4355753078517</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="V31" t="n">
-        <v>197.4355753078517</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="W31" t="n">
-        <v>197.4355753078517</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="X31" t="n">
-        <v>197.4355753078517</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="Y31" t="n">
-        <v>197.4355753078517</v>
+        <v>671.0991395211539</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>352.3609421445412</v>
+        <v>501.6296598440948</v>
       </c>
       <c r="C32" t="n">
         <v>352.3609421445412</v>
       </c>
       <c r="D32" t="n">
+        <v>352.3609421445412</v>
+      </c>
+      <c r="E32" t="n">
+        <v>352.3609421445412</v>
+      </c>
+      <c r="F32" t="n">
         <v>182.8914624674821</v>
-      </c>
-      <c r="E32" t="n">
-        <v>13.42198279042308</v>
-      </c>
-      <c r="F32" t="n">
-        <v>13.42198279042308</v>
       </c>
       <c r="G32" t="n">
         <v>13.42198279042308</v>
@@ -6698,19 +6698,19 @@
         <v>13.42198279042308</v>
       </c>
       <c r="J32" t="n">
-        <v>125.4575399369551</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="K32" t="n">
-        <v>291.5545769684407</v>
+        <v>139.5213034826366</v>
       </c>
       <c r="L32" t="n">
-        <v>457.6516139999263</v>
+        <v>305.6183405141222</v>
       </c>
       <c r="M32" t="n">
-        <v>619.7159653602581</v>
+        <v>471.7153775456078</v>
       </c>
       <c r="N32" t="n">
-        <v>653.0026903043187</v>
+        <v>505.0021024896683</v>
       </c>
       <c r="O32" t="n">
         <v>671.0991395211539</v>
@@ -6728,22 +6728,22 @@
         <v>671.0991395211539</v>
       </c>
       <c r="T32" t="n">
-        <v>521.8304218216003</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="U32" t="n">
-        <v>352.3609421445412</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="V32" t="n">
-        <v>352.3609421445412</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="W32" t="n">
-        <v>352.3609421445412</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="X32" t="n">
-        <v>352.3609421445412</v>
+        <v>671.0991395211539</v>
       </c>
       <c r="Y32" t="n">
-        <v>352.3609421445412</v>
+        <v>671.0991395211539</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>332.1601801670357</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="C33" t="n">
-        <v>162.6907004899766</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="D33" t="n">
-        <v>162.6907004899766</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="E33" t="n">
-        <v>162.6907004899766</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="F33" t="n">
-        <v>162.6907004899766</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="G33" t="n">
-        <v>162.6907004899766</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="H33" t="n">
-        <v>57.01606846329062</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="I33" t="n">
         <v>13.42198279042308</v>
@@ -6780,16 +6780,16 @@
         <v>13.42198279042308</v>
       </c>
       <c r="K33" t="n">
+        <v>13.42198279042308</v>
+      </c>
+      <c r="L33" t="n">
         <v>179.5190198219087</v>
       </c>
-      <c r="L33" t="n">
-        <v>211.8943085815053</v>
-      </c>
       <c r="M33" t="n">
-        <v>377.9913456129909</v>
+        <v>345.6160568533943</v>
       </c>
       <c r="N33" t="n">
-        <v>451.049548035733</v>
+        <v>418.6742592761364</v>
       </c>
       <c r="O33" t="n">
         <v>505.0021024896683</v>
@@ -6816,13 +6816,13 @@
         <v>332.1601801670357</v>
       </c>
       <c r="W33" t="n">
-        <v>332.1601801670357</v>
+        <v>162.6907004899766</v>
       </c>
       <c r="X33" t="n">
-        <v>332.1601801670357</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="Y33" t="n">
-        <v>332.1601801670357</v>
+        <v>13.42198279042308</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>182.4419091044274</v>
+        <v>332.4748051306657</v>
       </c>
       <c r="C34" t="n">
-        <v>182.4419091044274</v>
+        <v>163.5386222027588</v>
       </c>
       <c r="D34" t="n">
-        <v>182.4419091044274</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="E34" t="n">
-        <v>182.4419091044274</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="F34" t="n">
-        <v>182.4419091044274</v>
+        <v>13.42198279042308</v>
       </c>
       <c r="G34" t="n">
         <v>13.42198279042308</v>
@@ -6859,13 +6859,13 @@
         <v>13.42198279042308</v>
       </c>
       <c r="K34" t="n">
-        <v>67.43242630231214</v>
+        <v>67.43242630231224</v>
       </c>
       <c r="L34" t="n">
         <v>192.0736334556215</v>
       </c>
       <c r="M34" t="n">
-        <v>333.8794335065031</v>
+        <v>333.879433506503</v>
       </c>
       <c r="N34" t="n">
         <v>477.7480250055753</v>
@@ -6886,22 +6886,22 @@
         <v>671.0991395211539</v>
       </c>
       <c r="T34" t="n">
-        <v>671.0991395211539</v>
+        <v>501.6296598440948</v>
       </c>
       <c r="U34" t="n">
-        <v>671.0991395211539</v>
+        <v>501.6296598440948</v>
       </c>
       <c r="V34" t="n">
-        <v>671.0991395211539</v>
+        <v>501.6296598440948</v>
       </c>
       <c r="W34" t="n">
-        <v>521.3808684585456</v>
+        <v>501.6296598440948</v>
       </c>
       <c r="X34" t="n">
-        <v>351.9113887814865</v>
+        <v>501.6296598440948</v>
       </c>
       <c r="Y34" t="n">
-        <v>182.4419091044274</v>
+        <v>501.6296598440948</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>115.9736856914082</v>
+        <v>299.738428210284</v>
       </c>
       <c r="C35" t="n">
-        <v>9.567829069541178</v>
+        <v>299.738428210284</v>
       </c>
       <c r="D35" t="n">
-        <v>9.567829069541178</v>
+        <v>299.738428210284</v>
       </c>
       <c r="E35" t="n">
-        <v>9.567829069541178</v>
+        <v>299.738428210284</v>
       </c>
       <c r="F35" t="n">
-        <v>9.567829069541178</v>
+        <v>251.179674259975</v>
       </c>
       <c r="G35" t="n">
-        <v>9.567829069541178</v>
+        <v>130.3737516647581</v>
       </c>
       <c r="H35" t="n">
-        <v>9.567829069541178</v>
+        <v>130.3737516647581</v>
       </c>
       <c r="I35" t="n">
         <v>9.567829069541178</v>
       </c>
       <c r="J35" t="n">
-        <v>121.6033862160732</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="K35" t="n">
-        <v>190.2045098450188</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="L35" t="n">
-        <v>308.6063945805909</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="M35" t="n">
-        <v>427.008279316163</v>
+        <v>37.78417564784959</v>
       </c>
       <c r="N35" t="n">
-        <v>460.2950042602235</v>
+        <v>123.1857992703426</v>
       </c>
       <c r="O35" t="n">
-        <v>478.3914534770589</v>
+        <v>241.5876840059147</v>
       </c>
       <c r="P35" t="n">
-        <v>478.3914534770589</v>
+        <v>359.9895687414868</v>
       </c>
       <c r="Q35" t="n">
         <v>478.3914534770589</v>
       </c>
       <c r="R35" t="n">
-        <v>478.3914534770589</v>
+        <v>420.5443508055009</v>
       </c>
       <c r="S35" t="n">
-        <v>357.585530881842</v>
+        <v>420.5443508055009</v>
       </c>
       <c r="T35" t="n">
-        <v>236.7796082866251</v>
+        <v>420.5443508055009</v>
       </c>
       <c r="U35" t="n">
-        <v>115.9736856914082</v>
+        <v>420.5443508055009</v>
       </c>
       <c r="V35" t="n">
-        <v>115.9736856914082</v>
+        <v>420.5443508055009</v>
       </c>
       <c r="W35" t="n">
-        <v>115.9736856914082</v>
+        <v>299.738428210284</v>
       </c>
       <c r="X35" t="n">
-        <v>115.9736856914082</v>
+        <v>299.738428210284</v>
       </c>
       <c r="Y35" t="n">
-        <v>115.9736856914082</v>
+        <v>299.738428210284</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>9.567829069541178</v>
+        <v>236.7796082866251</v>
       </c>
       <c r="C36" t="n">
-        <v>9.567829069541178</v>
+        <v>115.9736856914082</v>
       </c>
       <c r="D36" t="n">
         <v>9.567829069541178</v>
@@ -7020,16 +7020,16 @@
         <v>82.60205970260908</v>
       </c>
       <c r="L36" t="n">
-        <v>139.8361939551834</v>
+        <v>201.0039444381812</v>
       </c>
       <c r="M36" t="n">
-        <v>196.9734970661817</v>
+        <v>319.4058291737532</v>
       </c>
       <c r="N36" t="n">
-        <v>315.3753818017537</v>
+        <v>392.4640315964953</v>
       </c>
       <c r="O36" t="n">
-        <v>359.9895687414868</v>
+        <v>437.0782185362283</v>
       </c>
       <c r="P36" t="n">
         <v>478.3914534770589</v>
@@ -7050,16 +7050,16 @@
         <v>478.3914534770589</v>
       </c>
       <c r="V36" t="n">
+        <v>478.3914534770589</v>
+      </c>
+      <c r="W36" t="n">
         <v>357.585530881842</v>
       </c>
-      <c r="W36" t="n">
+      <c r="X36" t="n">
         <v>236.7796082866251</v>
       </c>
-      <c r="X36" t="n">
-        <v>130.3737516647581</v>
-      </c>
       <c r="Y36" t="n">
-        <v>130.3737516647581</v>
+        <v>236.7796082866251</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>419.065033188268</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="C37" t="n">
-        <v>419.065033188268</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="D37" t="n">
-        <v>419.065033188268</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="E37" t="n">
-        <v>419.065033188268</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="F37" t="n">
-        <v>419.065033188268</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="G37" t="n">
-        <v>298.2591105930512</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="H37" t="n">
-        <v>177.4531879978342</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="I37" t="n">
-        <v>56.64726540261734</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="J37" t="n">
         <v>9.567829069541178</v>
       </c>
       <c r="K37" t="n">
-        <v>9.567829069541178</v>
+        <v>63.5782725814304</v>
       </c>
       <c r="L37" t="n">
-        <v>127.9697138051132</v>
+        <v>181.9801573170025</v>
       </c>
       <c r="M37" t="n">
-        <v>246.3715985406853</v>
+        <v>181.9801573170025</v>
       </c>
       <c r="N37" t="n">
-        <v>364.7734832762574</v>
+        <v>285.0403389614802</v>
       </c>
       <c r="O37" t="n">
-        <v>478.3914534770589</v>
+        <v>401.9099735026857</v>
       </c>
       <c r="P37" t="n">
         <v>478.3914534770589</v>
       </c>
       <c r="Q37" t="n">
-        <v>447.2892518936435</v>
+        <v>478.3914534770589</v>
       </c>
       <c r="R37" t="n">
-        <v>419.065033188268</v>
+        <v>357.585530881842</v>
       </c>
       <c r="S37" t="n">
-        <v>419.065033188268</v>
+        <v>357.585530881842</v>
       </c>
       <c r="T37" t="n">
-        <v>419.065033188268</v>
+        <v>357.585530881842</v>
       </c>
       <c r="U37" t="n">
-        <v>419.065033188268</v>
+        <v>357.585530881842</v>
       </c>
       <c r="V37" t="n">
-        <v>419.065033188268</v>
+        <v>236.7796082866251</v>
       </c>
       <c r="W37" t="n">
-        <v>419.065033188268</v>
+        <v>236.7796082866251</v>
       </c>
       <c r="X37" t="n">
-        <v>419.065033188268</v>
+        <v>115.9736856914082</v>
       </c>
       <c r="Y37" t="n">
-        <v>419.065033188268</v>
+        <v>9.567829069541178</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7148,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>251.179674259975</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3737516647581</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3737516647581</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3737516647581</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3737516647581</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3737516647581</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3737516647581</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="I38" t="n">
         <v>9.567829069541178</v>
       </c>
       <c r="J38" t="n">
-        <v>9.567829069541178</v>
+        <v>121.6033862160732</v>
       </c>
       <c r="K38" t="n">
-        <v>9.567829069541178</v>
+        <v>121.6033862160732</v>
       </c>
       <c r="L38" t="n">
-        <v>127.9697138051132</v>
+        <v>121.6033862160732</v>
       </c>
       <c r="M38" t="n">
-        <v>223.4912347890794</v>
+        <v>149.8197327943816</v>
       </c>
       <c r="N38" t="n">
-        <v>341.8931195246515</v>
+        <v>183.1064577384421</v>
       </c>
       <c r="O38" t="n">
+        <v>241.5876840059147</v>
+      </c>
+      <c r="P38" t="n">
         <v>359.9895687414868</v>
-      </c>
-      <c r="P38" t="n">
-        <v>478.3914534770589</v>
       </c>
       <c r="Q38" t="n">
         <v>478.3914534770589</v>
@@ -7202,22 +7202,22 @@
         <v>478.3914534770589</v>
       </c>
       <c r="T38" t="n">
-        <v>478.3914534770589</v>
+        <v>357.585530881842</v>
       </c>
       <c r="U38" t="n">
-        <v>478.3914534770589</v>
+        <v>236.7796082866251</v>
       </c>
       <c r="V38" t="n">
-        <v>478.3914534770589</v>
+        <v>130.3737516647581</v>
       </c>
       <c r="W38" t="n">
-        <v>478.3914534770589</v>
+        <v>130.3737516647581</v>
       </c>
       <c r="X38" t="n">
-        <v>478.3914534770589</v>
+        <v>130.3737516647581</v>
       </c>
       <c r="Y38" t="n">
-        <v>371.9855968551919</v>
+        <v>130.3737516647581</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>251.179674259975</v>
+        <v>426.6875881882278</v>
       </c>
       <c r="C39" t="n">
-        <v>130.3737516647581</v>
+        <v>426.6875881882278</v>
       </c>
       <c r="D39" t="n">
-        <v>130.3737516647581</v>
+        <v>305.8816655930109</v>
       </c>
       <c r="E39" t="n">
-        <v>9.567829069541178</v>
+        <v>305.8816655930109</v>
       </c>
       <c r="F39" t="n">
-        <v>9.567829069541178</v>
+        <v>298.9175618846887</v>
       </c>
       <c r="G39" t="n">
-        <v>9.567829069541178</v>
+        <v>178.1116392894718</v>
       </c>
       <c r="H39" t="n">
-        <v>9.567829069541178</v>
+        <v>72.43700726278573</v>
       </c>
       <c r="I39" t="n">
         <v>9.567829069541178</v>
       </c>
       <c r="J39" t="n">
-        <v>9.567829069541178</v>
+        <v>82.60205970260908</v>
       </c>
       <c r="K39" t="n">
-        <v>9.567829069541178</v>
+        <v>82.60205970260908</v>
       </c>
       <c r="L39" t="n">
-        <v>41.94311782913778</v>
+        <v>201.0039444381812</v>
       </c>
       <c r="M39" t="n">
-        <v>160.3450025647099</v>
+        <v>319.4058291737532</v>
       </c>
       <c r="N39" t="n">
-        <v>278.7468873002819</v>
+        <v>392.4640315964953</v>
       </c>
       <c r="O39" t="n">
-        <v>359.9895687414868</v>
+        <v>461.9177014450023</v>
       </c>
       <c r="P39" t="n">
         <v>478.3914534770589</v>
@@ -7275,28 +7275,28 @@
         <v>478.3914534770589</v>
       </c>
       <c r="R39" t="n">
-        <v>478.3914534770589</v>
+        <v>426.6875881882278</v>
       </c>
       <c r="S39" t="n">
-        <v>478.3914534770589</v>
+        <v>426.6875881882278</v>
       </c>
       <c r="T39" t="n">
-        <v>478.3914534770589</v>
+        <v>426.6875881882278</v>
       </c>
       <c r="U39" t="n">
-        <v>478.3914534770589</v>
+        <v>426.6875881882278</v>
       </c>
       <c r="V39" t="n">
-        <v>478.3914534770589</v>
+        <v>426.6875881882278</v>
       </c>
       <c r="W39" t="n">
-        <v>478.3914534770589</v>
+        <v>426.6875881882278</v>
       </c>
       <c r="X39" t="n">
-        <v>478.3914534770589</v>
+        <v>426.6875881882278</v>
       </c>
       <c r="Y39" t="n">
-        <v>371.9855968551919</v>
+        <v>426.6875881882278</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>478.3914534770589</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="C40" t="n">
-        <v>478.3914534770589</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="D40" t="n">
-        <v>478.3914534770589</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="E40" t="n">
-        <v>478.3914534770589</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="F40" t="n">
-        <v>419.065033188268</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="G40" t="n">
-        <v>298.2591105930512</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="H40" t="n">
-        <v>177.4531879978342</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="I40" t="n">
-        <v>56.64726540261734</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="J40" t="n">
         <v>9.567829069541178</v>
       </c>
       <c r="K40" t="n">
-        <v>9.567829069541178</v>
+        <v>63.5782725814304</v>
       </c>
       <c r="L40" t="n">
-        <v>48.23656949033609</v>
+        <v>63.5782725814304</v>
       </c>
       <c r="M40" t="n">
         <v>166.6384542259082</v>
@@ -7354,28 +7354,28 @@
         <v>478.3914534770589</v>
       </c>
       <c r="R40" t="n">
-        <v>478.3914534770589</v>
+        <v>357.585530881842</v>
       </c>
       <c r="S40" t="n">
-        <v>478.3914534770589</v>
+        <v>357.585530881842</v>
       </c>
       <c r="T40" t="n">
-        <v>478.3914534770589</v>
+        <v>357.585530881842</v>
       </c>
       <c r="U40" t="n">
-        <v>478.3914534770589</v>
+        <v>251.179674259975</v>
       </c>
       <c r="V40" t="n">
-        <v>478.3914534770589</v>
+        <v>130.3737516647581</v>
       </c>
       <c r="W40" t="n">
-        <v>478.3914534770589</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="X40" t="n">
-        <v>478.3914534770589</v>
+        <v>9.567829069541178</v>
       </c>
       <c r="Y40" t="n">
-        <v>478.3914534770589</v>
+        <v>9.567829069541178</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>217.8972334294008</v>
+        <v>440.2413491736872</v>
       </c>
       <c r="C41" t="n">
-        <v>217.8972334294008</v>
+        <v>329.069291301544</v>
       </c>
       <c r="D41" t="n">
         <v>217.8972334294008</v>
@@ -7409,25 +7409,25 @@
         <v>8.804826983473745</v>
       </c>
       <c r="J41" t="n">
-        <v>51.85907588985555</v>
+        <v>117.7645609039613</v>
       </c>
       <c r="K41" t="n">
-        <v>51.85907588985555</v>
+        <v>117.7645609039613</v>
       </c>
       <c r="L41" t="n">
-        <v>51.85907588985555</v>
+        <v>117.7645609039613</v>
       </c>
       <c r="M41" t="n">
-        <v>80.07542246816396</v>
+        <v>226.7242948244489</v>
       </c>
       <c r="N41" t="n">
-        <v>113.3621474122245</v>
+        <v>313.1851660363644</v>
       </c>
       <c r="O41" t="n">
-        <v>222.3218813327121</v>
+        <v>331.2816152531997</v>
       </c>
       <c r="P41" t="n">
-        <v>331.2816152531997</v>
+        <v>440.2413491736872</v>
       </c>
       <c r="Q41" t="n">
         <v>440.2413491736872</v>
@@ -7448,13 +7448,13 @@
         <v>440.2413491736872</v>
       </c>
       <c r="W41" t="n">
-        <v>329.069291301544</v>
+        <v>440.2413491736872</v>
       </c>
       <c r="X41" t="n">
-        <v>329.069291301544</v>
+        <v>440.2413491736872</v>
       </c>
       <c r="Y41" t="n">
-        <v>329.069291301544</v>
+        <v>440.2413491736872</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8.804826983473745</v>
+        <v>336.8235747544463</v>
       </c>
       <c r="C42" t="n">
-        <v>8.804826983473745</v>
+        <v>336.8235747544463</v>
       </c>
       <c r="D42" t="n">
-        <v>8.804826983473745</v>
+        <v>225.651516882303</v>
       </c>
       <c r="E42" t="n">
-        <v>8.804826983473745</v>
+        <v>225.651516882303</v>
       </c>
       <c r="F42" t="n">
-        <v>8.804826983473745</v>
+        <v>114.4794590101598</v>
       </c>
       <c r="G42" t="n">
-        <v>8.804826983473745</v>
+        <v>114.4794590101598</v>
       </c>
       <c r="H42" t="n">
         <v>8.804826983473745</v>
@@ -7494,13 +7494,13 @@
         <v>8.804826983473745</v>
       </c>
       <c r="L42" t="n">
-        <v>117.7645609039613</v>
+        <v>92.12637579897168</v>
       </c>
       <c r="M42" t="n">
-        <v>213.6092258907245</v>
+        <v>149.26367890997</v>
       </c>
       <c r="N42" t="n">
-        <v>286.6674283134666</v>
+        <v>222.3218813327121</v>
       </c>
       <c r="O42" t="n">
         <v>331.2816152531997</v>
@@ -7512,28 +7512,28 @@
         <v>440.2413491736872</v>
       </c>
       <c r="R42" t="n">
-        <v>388.5374838848562</v>
+        <v>440.2413491736872</v>
       </c>
       <c r="S42" t="n">
-        <v>277.3654260127129</v>
+        <v>440.2413491736872</v>
       </c>
       <c r="T42" t="n">
-        <v>166.1933681405696</v>
+        <v>440.2413491736872</v>
       </c>
       <c r="U42" t="n">
-        <v>55.02131026842636</v>
+        <v>440.2413491736872</v>
       </c>
       <c r="V42" t="n">
-        <v>8.804826983473745</v>
+        <v>440.2413491736872</v>
       </c>
       <c r="W42" t="n">
-        <v>8.804826983473745</v>
+        <v>440.2413491736872</v>
       </c>
       <c r="X42" t="n">
-        <v>8.804826983473745</v>
+        <v>336.8235747544463</v>
       </c>
       <c r="Y42" t="n">
-        <v>8.804826983473745</v>
+        <v>336.8235747544463</v>
       </c>
     </row>
     <row r="43">
@@ -7546,10 +7546,10 @@
         <v>217.8972334294008</v>
       </c>
       <c r="C43" t="n">
-        <v>217.8972334294008</v>
+        <v>106.7251755572575</v>
       </c>
       <c r="D43" t="n">
-        <v>106.7251755572575</v>
+        <v>8.804826983473745</v>
       </c>
       <c r="E43" t="n">
         <v>8.804826983473745</v>
@@ -7573,13 +7573,13 @@
         <v>36.88066743785126</v>
       </c>
       <c r="L43" t="n">
-        <v>36.88066743785126</v>
+        <v>145.8404013583389</v>
       </c>
       <c r="M43" t="n">
-        <v>145.8404013583389</v>
+        <v>254.8001352788264</v>
       </c>
       <c r="N43" t="n">
-        <v>254.8001352788264</v>
+        <v>363.759869199314</v>
       </c>
       <c r="O43" t="n">
         <v>363.759869199314</v>
@@ -7609,7 +7609,7 @@
         <v>440.2413491736872</v>
       </c>
       <c r="X43" t="n">
-        <v>329.069291301544</v>
+        <v>440.2413491736872</v>
       </c>
       <c r="Y43" t="n">
         <v>329.069291301544</v>
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>104.5775772347222</v>
+        <v>2.689836359116002</v>
       </c>
       <c r="C44" t="n">
-        <v>104.5775772347222</v>
+        <v>2.689836359116002</v>
       </c>
       <c r="D44" t="n">
-        <v>104.5775772347222</v>
+        <v>2.689836359116002</v>
       </c>
       <c r="E44" t="n">
-        <v>104.5775772347222</v>
+        <v>2.689836359116002</v>
       </c>
       <c r="F44" t="n">
-        <v>104.5775772347222</v>
+        <v>2.689836359116002</v>
       </c>
       <c r="G44" t="n">
-        <v>70.61499694285344</v>
+        <v>2.689836359116002</v>
       </c>
       <c r="H44" t="n">
-        <v>36.65241665098472</v>
+        <v>2.689836359116002</v>
       </c>
       <c r="I44" t="n">
         <v>2.689836359116002</v>
       </c>
       <c r="J44" t="n">
-        <v>2.689836359116002</v>
+        <v>35.97656130317653</v>
       </c>
       <c r="K44" t="n">
-        <v>2.689836359116002</v>
+        <v>54.89229721659586</v>
       </c>
       <c r="L44" t="n">
-        <v>35.97656130317653</v>
+        <v>54.89229721659586</v>
       </c>
       <c r="M44" t="n">
-        <v>64.19290788148496</v>
+        <v>83.10864379490428</v>
       </c>
       <c r="N44" t="n">
-        <v>97.47963282554548</v>
+        <v>116.3953687389648</v>
       </c>
       <c r="O44" t="n">
-        <v>130.766357769606</v>
+        <v>134.4918179558001</v>
       </c>
       <c r="P44" t="n">
         <v>134.4918179558001</v>
@@ -7670,28 +7670,28 @@
         <v>134.4918179558001</v>
       </c>
       <c r="R44" t="n">
-        <v>134.4918179558001</v>
+        <v>100.5292376639314</v>
       </c>
       <c r="S44" t="n">
-        <v>134.4918179558001</v>
+        <v>66.56665737206268</v>
       </c>
       <c r="T44" t="n">
-        <v>134.4918179558001</v>
+        <v>32.60407708019396</v>
       </c>
       <c r="U44" t="n">
-        <v>134.4918179558001</v>
+        <v>2.689836359116002</v>
       </c>
       <c r="V44" t="n">
-        <v>134.4918179558001</v>
+        <v>2.689836359116002</v>
       </c>
       <c r="W44" t="n">
-        <v>134.4918179558001</v>
+        <v>2.689836359116002</v>
       </c>
       <c r="X44" t="n">
-        <v>134.4918179558001</v>
+        <v>2.689836359116002</v>
       </c>
       <c r="Y44" t="n">
-        <v>104.5775772347222</v>
+        <v>2.689836359116002</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>100.5292376639314</v>
+        <v>134.4918179558001</v>
       </c>
       <c r="C45" t="n">
-        <v>66.56665737206268</v>
+        <v>104.5775772347222</v>
       </c>
       <c r="D45" t="n">
-        <v>66.56665737206268</v>
+        <v>104.5775772347222</v>
       </c>
       <c r="E45" t="n">
-        <v>66.56665737206268</v>
+        <v>104.5775772347222</v>
       </c>
       <c r="F45" t="n">
+        <v>104.5775772347222</v>
+      </c>
+      <c r="G45" t="n">
+        <v>70.61499694285344</v>
+      </c>
+      <c r="H45" t="n">
         <v>36.65241665098472</v>
-      </c>
-      <c r="G45" t="n">
-        <v>2.689836359116002</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2.689836359116002</v>
       </c>
       <c r="I45" t="n">
         <v>2.689836359116002</v>
@@ -7767,10 +7767,10 @@
         <v>134.4918179558001</v>
       </c>
       <c r="X45" t="n">
-        <v>100.5292376639314</v>
+        <v>134.4918179558001</v>
       </c>
       <c r="Y45" t="n">
-        <v>100.5292376639314</v>
+        <v>134.4918179558001</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>134.4918179558001</v>
+        <v>2.689836359116002</v>
       </c>
       <c r="C46" t="n">
-        <v>134.4918179558001</v>
+        <v>2.689836359116002</v>
       </c>
       <c r="D46" t="n">
-        <v>134.4918179558001</v>
+        <v>2.689836359116002</v>
       </c>
       <c r="E46" t="n">
-        <v>134.4918179558001</v>
+        <v>2.689836359116002</v>
       </c>
       <c r="F46" t="n">
-        <v>134.4918179558001</v>
+        <v>2.689836359116002</v>
       </c>
       <c r="G46" t="n">
-        <v>104.5775772347222</v>
+        <v>2.689836359116002</v>
       </c>
       <c r="H46" t="n">
-        <v>70.61499694285344</v>
+        <v>2.689836359116002</v>
       </c>
       <c r="I46" t="n">
-        <v>36.65241665098472</v>
+        <v>2.689836359116002</v>
       </c>
       <c r="J46" t="n">
         <v>2.689836359116002</v>
       </c>
       <c r="K46" t="n">
-        <v>35.97656130317653</v>
+        <v>2.689836359116002</v>
       </c>
       <c r="L46" t="n">
-        <v>35.97656130317653</v>
+        <v>2.689836359116002</v>
       </c>
       <c r="M46" t="n">
-        <v>69.26328624723706</v>
+        <v>34.63164312361854</v>
       </c>
       <c r="N46" t="n">
-        <v>102.5500111912976</v>
+        <v>67.91836806767907</v>
       </c>
       <c r="O46" t="n">
-        <v>134.4918179558001</v>
+        <v>101.2050930117396</v>
       </c>
       <c r="P46" t="n">
         <v>134.4918179558001</v>
       </c>
       <c r="Q46" t="n">
-        <v>134.4918179558001</v>
+        <v>104.5775772347222</v>
       </c>
       <c r="R46" t="n">
-        <v>134.4918179558001</v>
+        <v>70.61499694285344</v>
       </c>
       <c r="S46" t="n">
-        <v>134.4918179558001</v>
+        <v>36.65241665098472</v>
       </c>
       <c r="T46" t="n">
-        <v>134.4918179558001</v>
+        <v>2.689836359116002</v>
       </c>
       <c r="U46" t="n">
-        <v>134.4918179558001</v>
+        <v>2.689836359116002</v>
       </c>
       <c r="V46" t="n">
-        <v>134.4918179558001</v>
+        <v>2.689836359116002</v>
       </c>
       <c r="W46" t="n">
-        <v>134.4918179558001</v>
+        <v>2.689836359116002</v>
       </c>
       <c r="X46" t="n">
-        <v>134.4918179558001</v>
+        <v>2.689836359116002</v>
       </c>
       <c r="Y46" t="n">
-        <v>134.4918179558001</v>
+        <v>2.689836359116002</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>104.1063072421562</v>
+        <v>55.92938573113231</v>
       </c>
       <c r="K11" t="n">
         <v>32.57262248208627</v>
@@ -8696,19 +8696,19 @@
         <v>3.134711530120569</v>
       </c>
       <c r="M11" t="n">
-        <v>17.72901904764064</v>
+        <v>19.67556133091431</v>
       </c>
       <c r="N11" t="n">
-        <v>14.55396702207383</v>
+        <v>14.55396702207386</v>
       </c>
       <c r="O11" t="n">
-        <v>29.89767987785689</v>
+        <v>27.95113759458321</v>
       </c>
       <c r="P11" t="n">
         <v>19.2485859884199</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.11422644690708</v>
+        <v>111.291147957931</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8854,16 +8854,16 @@
         <v>84.7514138068114</v>
       </c>
       <c r="M13" t="n">
-        <v>83.44840055089216</v>
+        <v>81.5018582676185</v>
       </c>
       <c r="N13" t="n">
-        <v>72.72628647718949</v>
+        <v>26.49590724943928</v>
       </c>
       <c r="O13" t="n">
         <v>44.99153046567496</v>
       </c>
       <c r="P13" t="n">
-        <v>57.75254313790656</v>
+        <v>105.9294646489304</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>55.92938573113233</v>
+        <v>104.1063072421562</v>
       </c>
       <c r="K14" t="n">
-        <v>32.5726224820863</v>
+        <v>80.74954399311019</v>
       </c>
       <c r="L14" t="n">
         <v>3.134711530120597</v>
       </c>
       <c r="M14" t="n">
-        <v>14.00374443654757</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>14.00374443654756</v>
       </c>
       <c r="P14" t="n">
-        <v>67.4255074994438</v>
+        <v>19.24858598841993</v>
       </c>
       <c r="Q14" t="n">
-        <v>111.291147957931</v>
+        <v>63.11422644690711</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9167,7 +9167,7 @@
         <v>90.28707006895326</v>
       </c>
       <c r="L17" t="n">
-        <v>35.82815352943135</v>
+        <v>3.134711530120597</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>32.69344199931076</v>
       </c>
       <c r="P17" t="n">
         <v>19.24858598841993</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>71.00878276876011</v>
+        <v>52.31908520599681</v>
       </c>
       <c r="K18" t="n">
         <v>10.47738247941992</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>18.6896975627633</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9322,22 +9322,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>52.18776279728968</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
         <v>94.28893988265449</v>
       </c>
       <c r="M19" t="n">
-        <v>92.98592662673526</v>
+        <v>35.27147903986831</v>
       </c>
       <c r="N19" t="n">
         <v>84.21035483630625</v>
       </c>
       <c r="O19" t="n">
-        <v>100.3740811803453</v>
+        <v>102.7059780525419</v>
       </c>
       <c r="P19" t="n">
-        <v>57.75254313790657</v>
+        <v>58.57909030521402</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,25 +9398,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>55.92938573113233</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>32.5726224820863</v>
+        <v>166.724452873425</v>
       </c>
       <c r="L20" t="n">
-        <v>137.2865419214593</v>
+        <v>3.134711530120597</v>
       </c>
       <c r="M20" t="n">
-        <v>105.6504702112292</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>100.5288759023886</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>102.9355535530517</v>
       </c>
       <c r="P20" t="n">
-        <v>129.700898771184</v>
+        <v>19.24858598841993</v>
       </c>
       <c r="Q20" t="n">
         <v>63.11422644690711</v>
@@ -9477,25 +9477,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>52.31908520599681</v>
       </c>
       <c r="K21" t="n">
-        <v>10.47738247941992</v>
+        <v>144.6292128707586</v>
       </c>
       <c r="L21" t="n">
-        <v>53.62983991495068</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>76.43738280447172</v>
       </c>
       <c r="N21" t="n">
-        <v>60.35566632796281</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>117.5116768236047</v>
+        <v>94.67992000511985</v>
       </c>
       <c r="Q21" t="n">
         <v>39.29992873662567</v>
@@ -9559,16 +9559,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>52.18776279728968</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>104.1537210267152</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
         <v>169.423309431207</v>
       </c>
       <c r="N22" t="n">
-        <v>160.647737640778</v>
+        <v>47.77075357857592</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>55.92938573113233</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>32.5726224820863</v>
+        <v>200.3474073623748</v>
       </c>
       <c r="L23" t="n">
-        <v>3.134711530120597</v>
+        <v>156.6139579936142</v>
       </c>
       <c r="M23" t="n">
-        <v>139.273424700179</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>127.66783023838</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>149.4955432471215</v>
       </c>
       <c r="P23" t="n">
-        <v>187.0233708687084</v>
+        <v>19.24858598841993</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>63.11422644690711</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>52.31908520599681</v>
       </c>
       <c r="K24" t="n">
-        <v>10.47738247941992</v>
+        <v>178.2521673597084</v>
       </c>
       <c r="L24" t="n">
-        <v>45.72108161779975</v>
+        <v>135.0724730019081</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>151.1346313125545</v>
+        <v>135.5551900628581</v>
       </c>
       <c r="Q24" t="n">
-        <v>207.0747136169141</v>
+        <v>39.29992873662567</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,25 +9875,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>32.5726224820863</v>
+        <v>200.3474073623748</v>
       </c>
       <c r="L26" t="n">
-        <v>170.9094964104091</v>
+        <v>3.134711530120597</v>
       </c>
       <c r="M26" t="n">
         <v>139.273424700179</v>
       </c>
       <c r="N26" t="n">
-        <v>134.1518303913384</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>29.54953461909769</v>
+        <v>14.50060079743847</v>
       </c>
       <c r="P26" t="n">
         <v>19.24858598841993</v>
       </c>
       <c r="Q26" t="n">
-        <v>63.11422644690711</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>10.47738247941992</v>
+        <v>178.2521673597084</v>
       </c>
       <c r="L27" t="n">
-        <v>135.0724730019081</v>
+        <v>45.72108161779971</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>61.78323992844616</v>
+        <v>151.1346313125545</v>
       </c>
       <c r="Q27" t="n">
-        <v>207.0747136169141</v>
+        <v>39.29992873662567</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10115,22 +10115,22 @@
         <v>32.5726224820863</v>
       </c>
       <c r="L29" t="n">
-        <v>170.9094964104091</v>
+        <v>164.1307172233268</v>
       </c>
       <c r="M29" t="n">
         <v>139.273424700179</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>134.1518303913384</v>
       </c>
       <c r="O29" t="n">
-        <v>127.6678302383799</v>
+        <v>149.4955432471215</v>
       </c>
       <c r="P29" t="n">
         <v>19.24858598841993</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>63.11422644690711</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>52.31908520599681</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>10.47738247941992</v>
+        <v>178.2521673597084</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>119.4930317522118</v>
+        <v>45.72108161779971</v>
       </c>
       <c r="P30" t="n">
         <v>151.1346313125545</v>
       </c>
       <c r="Q30" t="n">
-        <v>207.0747136169141</v>
+        <v>39.29992873662567</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,22 +10346,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>55.92938573113233</v>
       </c>
       <c r="K32" t="n">
-        <v>200.3474073623748</v>
+        <v>159.9456736863424</v>
       </c>
       <c r="L32" t="n">
-        <v>170.9094964104091</v>
+        <v>170.909496410409</v>
       </c>
       <c r="M32" t="n">
-        <v>135.2000048303266</v>
+        <v>139.273424700179</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>149.4955432471215</v>
       </c>
       <c r="P32" t="n">
         <v>19.24858598841993</v>
@@ -10428,10 +10428,10 @@
         <v>52.31908520599681</v>
       </c>
       <c r="K33" t="n">
-        <v>178.2521673597084</v>
+        <v>10.47738247941992</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>135.0724730019081</v>
       </c>
       <c r="M33" t="n">
         <v>110.0603372934215</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>9.432694458790252</v>
+        <v>42.13500633717062</v>
       </c>
       <c r="P33" t="n">
         <v>151.1346313125545</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>55.92938573113233</v>
       </c>
       <c r="K35" t="n">
-        <v>101.8666867537486</v>
+        <v>32.5726224820863</v>
       </c>
       <c r="L35" t="n">
-        <v>122.7325748993853</v>
+        <v>3.134711530120597</v>
       </c>
       <c r="M35" t="n">
-        <v>91.09650318915521</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>52.64131179639647</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>101.3186217360978</v>
       </c>
       <c r="P35" t="n">
-        <v>19.24858598841993</v>
+        <v>138.8464493576846</v>
       </c>
       <c r="Q35" t="n">
-        <v>63.11422644690711</v>
+        <v>182.7120898161718</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10668,19 +10668,19 @@
         <v>10.47738247941992</v>
       </c>
       <c r="L36" t="n">
-        <v>25.1099449424017</v>
+        <v>86.8955514908843</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>61.88341578239776</v>
       </c>
       <c r="N36" t="n">
-        <v>45.80169930588886</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>102.9577098015307</v>
+        <v>25.09038677653928</v>
       </c>
       <c r="Q36" t="n">
         <v>39.29992873662567</v>
@@ -10744,22 +10744,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>52.18776279728968</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
         <v>156.1723556650522</v>
       </c>
       <c r="M37" t="n">
-        <v>154.869342409133</v>
+        <v>35.27147903986831</v>
       </c>
       <c r="N37" t="n">
-        <v>146.093770618704</v>
+        <v>130.5971008297199</v>
       </c>
       <c r="O37" t="n">
-        <v>159.757156931131</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>57.75254313790657</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>55.92938573113233</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>32.5726224820863</v>
       </c>
       <c r="L38" t="n">
-        <v>122.7325748993853</v>
+        <v>3.134711530120597</v>
       </c>
       <c r="M38" t="n">
-        <v>67.98502465217952</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>85.97490888031467</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>40.79270409155277</v>
       </c>
       <c r="P38" t="n">
         <v>138.8464493576846</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.11422644690711</v>
+        <v>182.7120898161718</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,25 +10899,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>52.31908520599681</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>10.47738247941992</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>86.8955514908843</v>
       </c>
       <c r="M39" t="n">
         <v>61.88341578239776</v>
       </c>
       <c r="N39" t="n">
-        <v>45.80169930588885</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>36.99847929441601</v>
+        <v>25.09038677653932</v>
       </c>
       <c r="P39" t="n">
-        <v>102.9577098015307</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>39.29992873662567</v>
@@ -10981,13 +10981,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>52.18776279728968</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>75.63382605416624</v>
+        <v>36.57449229578754</v>
       </c>
       <c r="M40" t="n">
-        <v>154.869342409133</v>
+        <v>139.3726726201489</v>
       </c>
       <c r="N40" t="n">
         <v>146.093770618704</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>99.4185260406089</v>
+        <v>165.9897230245541</v>
       </c>
       <c r="K41" t="n">
         <v>32.5726224820863</v>
@@ -11066,19 +11066,19 @@
         <v>3.134711530120597</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>81.5589771133123</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>53.71125885641911</v>
       </c>
       <c r="O41" t="n">
-        <v>91.78109566025481</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>129.3089232818417</v>
       </c>
       <c r="Q41" t="n">
-        <v>173.1745637403289</v>
+        <v>63.11422644690711</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11142,16 +11142,16 @@
         <v>10.47738247941992</v>
       </c>
       <c r="L42" t="n">
-        <v>77.3580254150414</v>
+        <v>51.46086874333467</v>
       </c>
       <c r="M42" t="n">
-        <v>39.09834532905546</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>64.9955020007622</v>
       </c>
       <c r="P42" t="n">
         <v>93.42018372568785</v>
@@ -11221,7 +11221,7 @@
         <v>80.5471975996912</v>
       </c>
       <c r="L43" t="n">
-        <v>36.57449229578754</v>
+        <v>146.6348295892093</v>
       </c>
       <c r="M43" t="n">
         <v>145.3318163332901</v>
@@ -11230,7 +11230,7 @@
         <v>136.5562445428611</v>
       </c>
       <c r="O43" t="n">
-        <v>155.0518677590968</v>
+        <v>44.99153046567497</v>
       </c>
       <c r="P43" t="n">
         <v>135.0065633140411</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>55.92938573113233</v>
+        <v>89.55234022008236</v>
       </c>
       <c r="K44" t="n">
-        <v>32.5726224820863</v>
+        <v>51.67942643503513</v>
       </c>
       <c r="L44" t="n">
-        <v>36.75766601907063</v>
+        <v>3.134711530120597</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,10 +11309,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>15.34371285578305</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>23.0116770855857</v>
+        <v>19.24858598841993</v>
       </c>
       <c r="Q44" t="n">
         <v>63.11422644690711</v>
@@ -11455,22 +11455,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>85.81071728623971</v>
+        <v>52.18776279728968</v>
       </c>
       <c r="L46" t="n">
         <v>36.57449229578754</v>
       </c>
       <c r="M46" t="n">
-        <v>68.89443352881834</v>
+        <v>67.5359303171436</v>
       </c>
       <c r="N46" t="n">
         <v>60.11886173838933</v>
       </c>
       <c r="O46" t="n">
-        <v>77.25598174295025</v>
+        <v>78.614484954625</v>
       </c>
       <c r="P46" t="n">
-        <v>57.75254313790657</v>
+        <v>91.3754976268566</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23306,19 +23306,19 @@
         <v>57.26863164484232</v>
       </c>
       <c r="S11" t="n">
-        <v>127.2509871060916</v>
+        <v>175.4279086171155</v>
       </c>
       <c r="T11" t="n">
-        <v>168.4658426052801</v>
+        <v>174.2085316493942</v>
       </c>
       <c r="U11" t="n">
         <v>203.0507995097021</v>
       </c>
       <c r="V11" t="n">
-        <v>285.3180260032251</v>
+        <v>279.575336959111</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>301.0640472063891</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23340,10 +23340,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>105.0108330977289</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>109.4681589443771</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23352,7 +23352,7 @@
         <v>136.5547781328484</v>
       </c>
       <c r="H12" t="n">
-        <v>56.44096419539527</v>
+        <v>104.6178857064192</v>
       </c>
       <c r="I12" t="n">
         <v>62.24048641131208</v>
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>51.18682663594274</v>
+        <v>3.009905124918852</v>
       </c>
       <c r="S12" t="n">
         <v>108.8557680420068</v>
       </c>
       <c r="T12" t="n">
-        <v>196.9855569013879</v>
+        <v>148.808635390364</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8894913552931</v>
+        <v>183.4552588883833</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23431,13 +23431,13 @@
         <v>167.3297270508643</v>
       </c>
       <c r="H13" t="n">
-        <v>108.1711168434396</v>
+        <v>156.3480383544635</v>
       </c>
       <c r="I13" t="n">
-        <v>87.38789311148503</v>
+        <v>135.5648146225089</v>
       </c>
       <c r="J13" t="n">
-        <v>34.96558907041678</v>
+        <v>46.60864196974539</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>99.38416156285348</v>
       </c>
       <c r="S13" t="n">
-        <v>212.4927737309854</v>
+        <v>164.3158522199615</v>
       </c>
       <c r="T13" t="n">
-        <v>225.1202386594689</v>
+        <v>176.943317148445</v>
       </c>
       <c r="U13" t="n">
         <v>286.2829610488039</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>240.4945904244994</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23543,19 +23543,19 @@
         <v>9.091710133818445</v>
       </c>
       <c r="S14" t="n">
-        <v>175.4279086171155</v>
+        <v>127.2509871060916</v>
       </c>
       <c r="T14" t="n">
         <v>168.4658426052801</v>
       </c>
       <c r="U14" t="n">
-        <v>251.227721020726</v>
+        <v>208.7934885538162</v>
       </c>
       <c r="V14" t="n">
-        <v>285.3180260032251</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>301.0640472063891</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23577,10 +23577,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>105.0108330977289</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>109.4681589443771</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23589,7 +23589,7 @@
         <v>136.5547781328484</v>
       </c>
       <c r="H15" t="n">
-        <v>56.44096419539527</v>
+        <v>104.6178857064192</v>
       </c>
       <c r="I15" t="n">
         <v>62.24048641131209</v>
@@ -23625,13 +23625,13 @@
         <v>108.8557680420068</v>
       </c>
       <c r="T15" t="n">
-        <v>196.9855569013879</v>
+        <v>148.808635390364</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8894913552931</v>
+        <v>177.7125698442692</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>190.3663546825154</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3297270508643</v>
+        <v>154.1183946102572</v>
       </c>
       <c r="H16" t="n">
-        <v>156.3480383544635</v>
+        <v>108.1711168434396</v>
       </c>
       <c r="I16" t="n">
         <v>87.38789311148503</v>
@@ -23695,13 +23695,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>30.79117956758122</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>103.5585710656891</v>
+        <v>147.5610830738774</v>
       </c>
       <c r="S16" t="n">
-        <v>164.3158522199615</v>
+        <v>212.4927737309854</v>
       </c>
       <c r="T16" t="n">
         <v>225.1202386594689</v>
@@ -23777,10 +23777,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>57.26863164484233</v>
       </c>
       <c r="S17" t="n">
-        <v>175.4279086171155</v>
+        <v>124.5930231826031</v>
       </c>
       <c r="T17" t="n">
         <v>158.928316529437</v>
@@ -23789,7 +23789,7 @@
         <v>193.513273433859</v>
       </c>
       <c r="V17" t="n">
-        <v>276.4715570935979</v>
+        <v>270.037810883268</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23829,7 +23829,7 @@
         <v>104.6178857064192</v>
       </c>
       <c r="I18" t="n">
-        <v>62.24048641131209</v>
+        <v>4.526038824445138</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23862,10 +23862,10 @@
         <v>99.31824196616373</v>
       </c>
       <c r="T18" t="n">
-        <v>139.2711093145209</v>
+        <v>139.6230505159513</v>
       </c>
       <c r="U18" t="n">
-        <v>168.5269849698565</v>
+        <v>225.8894913552931</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23932,13 +23932,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>30.79117956758122</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>147.5610830738774</v>
+        <v>89.84663548701042</v>
       </c>
       <c r="S19" t="n">
-        <v>161.657888296473</v>
+        <v>154.7783261441184</v>
       </c>
       <c r="T19" t="n">
         <v>167.4057910726019</v>
@@ -23947,16 +23947,16 @@
         <v>286.2829610488039</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>232.0939374568968</v>
       </c>
       <c r="W19" t="n">
-        <v>228.808550749724</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>160.8702057652278</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>248.5820112721419</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23981,13 +23981,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.8285889262539</v>
+        <v>279.6767585349152</v>
       </c>
       <c r="H20" t="n">
-        <v>324.3776778798878</v>
+        <v>190.2258474885491</v>
       </c>
       <c r="I20" t="n">
-        <v>153.6437760975643</v>
+        <v>35.48284388887319</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,22 +24020,22 @@
         <v>175.4279086171155</v>
       </c>
       <c r="T20" t="n">
-        <v>98.48183190761294</v>
+        <v>216.642764116304</v>
       </c>
       <c r="U20" t="n">
-        <v>117.0758906293873</v>
+        <v>251.227721020726</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>215.0891383260743</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>252.0861082647149</v>
       </c>
     </row>
     <row r="21">
@@ -24048,7 +24048,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>38.55666859697706</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24099,16 +24099,16 @@
         <v>22.880859161692</v>
       </c>
       <c r="T21" t="n">
-        <v>196.9855569013879</v>
+        <v>62.83372651004922</v>
       </c>
       <c r="U21" t="n">
-        <v>91.73766096395443</v>
+        <v>107.728559146602</v>
       </c>
       <c r="V21" t="n">
-        <v>98.64875675808659</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>133.5340509522285</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24127,10 +24127,10 @@
         <v>45.68014979059862</v>
       </c>
       <c r="C22" t="n">
-        <v>33.09499070728916</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>14.46364262687368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3297270508643</v>
+        <v>49.16879484217323</v>
       </c>
       <c r="H22" t="n">
-        <v>156.3480383544635</v>
+        <v>22.19620796312481</v>
       </c>
       <c r="I22" t="n">
         <v>135.5648146225089</v>
@@ -24175,13 +24175,13 @@
         <v>147.5610830738774</v>
       </c>
       <c r="S22" t="n">
-        <v>94.33184152229434</v>
+        <v>212.4927737309854</v>
       </c>
       <c r="T22" t="n">
         <v>225.1202386594689</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2829610488039</v>
+        <v>152.1311306574653</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24212,13 +24212,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>214.1555851919733</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>239.101260861423</v>
       </c>
       <c r="G23" t="n">
-        <v>413.8285889262539</v>
+        <v>246.0538040459654</v>
       </c>
       <c r="H23" t="n">
         <v>324.3776778798878</v>
@@ -24254,16 +24254,16 @@
         <v>57.26863164484233</v>
       </c>
       <c r="S23" t="n">
-        <v>7.653123736826984</v>
+        <v>27.65187809455742</v>
       </c>
       <c r="T23" t="n">
-        <v>48.86797923601551</v>
+        <v>216.642764116304</v>
       </c>
       <c r="U23" t="n">
-        <v>83.45293614043752</v>
+        <v>251.227721020726</v>
       </c>
       <c r="V23" t="n">
-        <v>179.9762279475769</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>4.93371410802726</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>51.18682663594274</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>157.0326895530307</v>
@@ -24342,16 +24342,16 @@
         <v>58.11470647500462</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>136.2113832628099</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>83.92019828063113</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>37.998200323189</v>
       </c>
       <c r="Y24" t="n">
-        <v>204.1101295889639</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24418,7 +24418,7 @@
         <v>225.1202386594689</v>
       </c>
       <c r="U25" t="n">
-        <v>138.5069305262459</v>
+        <v>286.2829610488039</v>
       </c>
       <c r="V25" t="n">
         <v>84.36285844353952</v>
@@ -24430,7 +24430,7 @@
         <v>57.93487050874867</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>70.80862282953674</v>
       </c>
     </row>
     <row r="26">
@@ -24449,7 +24449,7 @@
         <v>186.9082567403945</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>234.1543395497037</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>238.4619081334955</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,19 +24522,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>131.0278228580688</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.5547781328484</v>
       </c>
       <c r="H27" t="n">
         <v>104.6178857064192</v>
@@ -24570,25 +24570,25 @@
         <v>51.18682663594274</v>
       </c>
       <c r="S27" t="n">
-        <v>157.0326895530307</v>
+        <v>9.256659030472633</v>
       </c>
       <c r="T27" t="n">
         <v>196.9855569013879</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8894913552931</v>
+        <v>58.11470647500462</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>65.02580226913679</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>83.92019828063113</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>37.90791089701588</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>12.05719530164882</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0.3114787139936936</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,16 +24613,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3297270508643</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.3480383544635</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>135.5648146225089</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>46.6086419697454</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,10 +24643,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>30.79117956758122</v>
       </c>
       <c r="R28" t="n">
-        <v>33.1030994756173</v>
+        <v>147.5610830738774</v>
       </c>
       <c r="S28" t="n">
         <v>212.4927737309854</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>50.80986847180631</v>
       </c>
     </row>
     <row r="29">
@@ -24680,19 +24680,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>197.4981068907191</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>291.4229711945461</v>
+        <v>214.1555851919733</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>239.101260861423</v>
       </c>
       <c r="G29" t="n">
-        <v>413.8285889262539</v>
+        <v>266.0525584036958</v>
       </c>
       <c r="H29" t="n">
         <v>324.3776778798878</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>57.26863164484233</v>
       </c>
       <c r="S29" t="n">
         <v>175.4279086171155</v>
@@ -24740,7 +24740,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>181.4661838371245</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>18.75715312730929</v>
       </c>
       <c r="C30" t="n">
-        <v>4.93371410802726</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24807,16 +24807,16 @@
         <v>51.18682663594274</v>
       </c>
       <c r="S30" t="n">
-        <v>8.015057800051437</v>
+        <v>157.0326895530307</v>
       </c>
       <c r="T30" t="n">
         <v>196.9855569013879</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8894913552931</v>
+        <v>58.11470647500462</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>65.02580226913679</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24838,28 +24838,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9466466737814</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3297270508643</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.3480383544635</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>135.5648146225089</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>46.6086419697454</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,16 +24880,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>30.79117956758122</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>147.5610830738774</v>
       </c>
       <c r="S31" t="n">
-        <v>44.71798885069691</v>
+        <v>212.4927737309854</v>
       </c>
       <c r="T31" t="n">
-        <v>102.3203576100469</v>
+        <v>225.1202386594689</v>
       </c>
       <c r="U31" t="n">
         <v>286.2829610488039</v>
@@ -24914,22 +24914,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>214.9590567831921</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>217.4968612484495</v>
       </c>
       <c r="D32" t="n">
-        <v>186.9082567403945</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>214.1555851919733</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>239.101260861423</v>
       </c>
       <c r="G32" t="n">
-        <v>413.8285889262539</v>
+        <v>246.0538040459654</v>
       </c>
       <c r="H32" t="n">
         <v>324.3776778798878</v>
@@ -24968,10 +24968,10 @@
         <v>175.4279086171155</v>
       </c>
       <c r="T32" t="n">
-        <v>68.86673359374595</v>
+        <v>216.642764116304</v>
       </c>
       <c r="U32" t="n">
-        <v>83.45293614043752</v>
+        <v>251.227721020726</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24996,7 +24996,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>4.93371410802726</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25011,10 +25011,10 @@
         <v>136.5547781328484</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>104.6178857064192</v>
       </c>
       <c r="I33" t="n">
-        <v>19.08234159517323</v>
+        <v>62.24048641131209</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25056,10 +25056,10 @@
         <v>65.02580226913679</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>83.92019828063113</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>57.99695468091943</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>12.36867401564245</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3297270508643</v>
       </c>
       <c r="H34" t="n">
         <v>156.3480383544635</v>
@@ -25126,7 +25126,7 @@
         <v>212.4927737309854</v>
       </c>
       <c r="T34" t="n">
-        <v>225.1202386594689</v>
+        <v>57.34545377918039</v>
       </c>
       <c r="U34" t="n">
         <v>286.2829610488039</v>
@@ -25135,13 +25135,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>138.3019099846088</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>57.93487050874867</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>50.80986847180631</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,7 +25154,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>259.9310937153592</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,16 +25163,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>358.8028793309055</v>
       </c>
       <c r="G35" t="n">
-        <v>413.8285889262539</v>
+        <v>294.2307255569892</v>
       </c>
       <c r="H35" t="n">
         <v>324.3776778798878</v>
       </c>
       <c r="I35" t="n">
-        <v>153.6437760975643</v>
+        <v>34.04591272829954</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,22 +25199,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>57.26863164484233</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>55.83004524785075</v>
+        <v>175.4279086171155</v>
       </c>
       <c r="T35" t="n">
-        <v>97.04490074703928</v>
+        <v>216.642764116304</v>
       </c>
       <c r="U35" t="n">
-        <v>131.6298576514613</v>
+        <v>251.227721020726</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>229.6431053481483</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25230,13 +25230,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>46.93532028060262</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>53.11063561905102</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>42.10326750899041</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25290,13 +25290,13 @@
         <v>225.8894913552931</v>
       </c>
       <c r="V36" t="n">
-        <v>113.2027237801606</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>132.0971197916549</v>
       </c>
       <c r="X36" t="n">
-        <v>100.4311871478291</v>
+        <v>86.17512183421276</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25324,16 +25324,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>47.73186368159959</v>
+        <v>167.3297270508643</v>
       </c>
       <c r="H37" t="n">
-        <v>36.75017498519877</v>
+        <v>156.3480383544635</v>
       </c>
       <c r="I37" t="n">
-        <v>15.9669512532442</v>
+        <v>135.5648146225089</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>46.6086419697454</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,10 +25354,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>30.79117956758122</v>
       </c>
       <c r="R37" t="n">
-        <v>119.6191065555557</v>
+        <v>27.96321970461265</v>
       </c>
       <c r="S37" t="n">
         <v>212.4927737309854</v>
@@ -25369,16 +25369,16 @@
         <v>286.2829610488039</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>132.5397799545633</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>106.1117920197724</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>113.2428552964465</v>
       </c>
     </row>
     <row r="38">
@@ -25391,7 +25391,7 @@
         <v>263.1359782942159</v>
       </c>
       <c r="C38" t="n">
-        <v>245.6750284017428</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25409,7 +25409,7 @@
         <v>324.3776778798878</v>
       </c>
       <c r="I38" t="n">
-        <v>34.04591272829954</v>
+        <v>153.6437760975643</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,13 +25442,13 @@
         <v>175.4279086171155</v>
       </c>
       <c r="T38" t="n">
-        <v>216.642764116304</v>
+        <v>97.04490074703928</v>
       </c>
       <c r="U38" t="n">
-        <v>251.227721020726</v>
+        <v>131.6298576514613</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>222.4104604144866</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>280.8961406004053</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,28 +25467,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>46.93532028060262</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>53.11063561905102</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>27.84720219537404</v>
       </c>
       <c r="E39" t="n">
-        <v>38.04721708613623</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>138.1747497221449</v>
       </c>
       <c r="G39" t="n">
-        <v>136.5547781328484</v>
+        <v>16.9569147635837</v>
       </c>
       <c r="H39" t="n">
-        <v>104.6178857064192</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>62.24048641131209</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>51.18682663594274</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>157.0326895530307</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>100.3408977216561</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25558,19 +25558,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>86.68789193702834</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>47.73186368159959</v>
+        <v>167.3297270508643</v>
       </c>
       <c r="H40" t="n">
-        <v>36.75017498519877</v>
+        <v>156.3480383544635</v>
       </c>
       <c r="I40" t="n">
-        <v>15.9669512532442</v>
+        <v>135.5648146225089</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>46.6086419697454</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>30.79117956758122</v>
       </c>
       <c r="R40" t="n">
-        <v>147.5610830738774</v>
+        <v>27.96321970461265</v>
       </c>
       <c r="S40" t="n">
         <v>212.4927737309854</v>
@@ -25603,13 +25603,13 @@
         <v>225.1202386594689</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2829610488039</v>
+        <v>180.9411629931556</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>132.5397799545633</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>166.9251349673263</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>272.6735043700588</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>255.2125544775857</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>244.6227043272611</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25688,7 +25688,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>239.1806314239912</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25710,19 +25710,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>37.38472827121694</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>35.00887509996207</v>
       </c>
       <c r="G42" t="n">
         <v>136.5547781328484</v>
       </c>
       <c r="H42" t="n">
-        <v>104.6178857064192</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>62.24048641131209</v>
@@ -25752,25 +25752,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>51.18682663594274</v>
       </c>
       <c r="S42" t="n">
-        <v>46.97235225960887</v>
+        <v>157.0326895530307</v>
       </c>
       <c r="T42" t="n">
-        <v>86.92521960796608</v>
+        <v>196.9855569013879</v>
       </c>
       <c r="U42" t="n">
-        <v>115.8291540618713</v>
+        <v>225.8894913552931</v>
       </c>
       <c r="V42" t="n">
-        <v>187.0462686973222</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>103.389388528429</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25786,13 +25786,13 @@
         <v>69.77164288851549</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>57.18648380520602</v>
       </c>
       <c r="D43" t="n">
-        <v>38.55513572479055</v>
+        <v>51.67432793016644</v>
       </c>
       <c r="E43" t="n">
-        <v>49.49281755852326</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25849,10 +25849,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>115.6493180956153</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>108.524316058673</v>
       </c>
     </row>
     <row r="44">
@@ -25877,13 +25877,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>380.2056344373038</v>
+        <v>413.8285889262539</v>
       </c>
       <c r="H44" t="n">
-        <v>290.7547233909377</v>
+        <v>324.3776778798878</v>
       </c>
       <c r="I44" t="n">
-        <v>120.0208216086142</v>
+        <v>153.6437760975643</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25910,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>57.26863164484233</v>
+        <v>23.6456771558923</v>
       </c>
       <c r="S44" t="n">
-        <v>175.4279086171155</v>
+        <v>141.8049541281654</v>
       </c>
       <c r="T44" t="n">
-        <v>216.642764116304</v>
+        <v>183.019809627354</v>
       </c>
       <c r="U44" t="n">
-        <v>251.227721020726</v>
+        <v>221.6126227068588</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>356.6228403421864</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25944,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>139.0855444993657</v>
+        <v>143.0934006744486</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25953,16 +25953,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>115.4541140795167</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>102.9318236438984</v>
       </c>
       <c r="H45" t="n">
-        <v>104.6178857064192</v>
+        <v>70.99493121746913</v>
       </c>
       <c r="I45" t="n">
-        <v>62.24048641131209</v>
+        <v>28.61753192236206</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26007,7 +26007,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>172.1500307145274</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26035,16 +26035,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>137.7146287369971</v>
+        <v>167.3297270508643</v>
       </c>
       <c r="H46" t="n">
-        <v>122.7250838655135</v>
+        <v>156.3480383544635</v>
       </c>
       <c r="I46" t="n">
-        <v>101.9418601335589</v>
+        <v>135.5648146225089</v>
       </c>
       <c r="J46" t="n">
-        <v>12.98568748079537</v>
+        <v>46.6086419697454</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,16 +26065,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>30.79117956758122</v>
+        <v>1.176081253714038</v>
       </c>
       <c r="R46" t="n">
-        <v>147.5610830738774</v>
+        <v>113.9381285849273</v>
       </c>
       <c r="S46" t="n">
-        <v>212.4927737309854</v>
+        <v>178.8698192420354</v>
       </c>
       <c r="T46" t="n">
-        <v>225.1202386594689</v>
+        <v>191.4972841705188</v>
       </c>
       <c r="U46" t="n">
         <v>286.2829610488039</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>405136.7800392842</v>
+        <v>405136.7800392843</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>433838.4794673747</v>
+        <v>433838.4794673748</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>433838.4794673749</v>
+        <v>433838.4794673748</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>433838.4794673748</v>
+        <v>433838.4794673749</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>392713.017960577</v>
+        <v>392713.0179605771</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>384571.4607751018</v>
+        <v>384571.4607751019</v>
       </c>
     </row>
     <row r="16">
@@ -26314,10 +26314,10 @@
         <v>471083.894762297</v>
       </c>
       <c r="C2" t="n">
-        <v>471083.8947622971</v>
+        <v>471083.894762297</v>
       </c>
       <c r="D2" t="n">
-        <v>471083.8947622971</v>
+        <v>471083.894762297</v>
       </c>
       <c r="E2" t="n">
         <v>155012.4184179069</v>
@@ -26335,7 +26335,7 @@
         <v>193976.5842542279</v>
       </c>
       <c r="J2" t="n">
-        <v>193976.5842542279</v>
+        <v>193976.584254228</v>
       </c>
       <c r="K2" t="n">
         <v>193976.5842542279</v>
@@ -26347,13 +26347,13 @@
         <v>178280.8727560795</v>
       </c>
       <c r="N2" t="n">
-        <v>178280.8727560795</v>
+        <v>178280.8727560796</v>
       </c>
       <c r="O2" t="n">
-        <v>175173.6119972483</v>
+        <v>175173.6119972482</v>
       </c>
       <c r="P2" t="n">
-        <v>150270.8355112497</v>
+        <v>150270.8355112498</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415295.1629349835</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="C4" t="n">
-        <v>415295.1629349835</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="D4" t="n">
-        <v>415295.1629349835</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>15623.09542651236</v>
+        <v>15507.39856190552</v>
       </c>
       <c r="F4" t="n">
-        <v>15623.09542651237</v>
+        <v>15507.39856190553</v>
       </c>
       <c r="G4" t="n">
-        <v>17171.88798946542</v>
+        <v>17044.75219739338</v>
       </c>
       <c r="H4" t="n">
-        <v>31483.61390696547</v>
+        <v>31250.70060450158</v>
       </c>
       <c r="I4" t="n">
-        <v>37877.20408620512</v>
+        <v>37597.03258503925</v>
       </c>
       <c r="J4" t="n">
-        <v>37877.20408620512</v>
+        <v>37597.03258503924</v>
       </c>
       <c r="K4" t="n">
-        <v>37877.20408620512</v>
+        <v>37597.03258503924</v>
       </c>
       <c r="L4" t="n">
-        <v>37877.20408620514</v>
+        <v>37597.03258503925</v>
       </c>
       <c r="M4" t="n">
-        <v>28716.09683311964</v>
+        <v>28503.63962310465</v>
       </c>
       <c r="N4" t="n">
-        <v>28716.09683311963</v>
+        <v>28503.63962310465</v>
       </c>
       <c r="O4" t="n">
-        <v>26902.48366379533</v>
+        <v>26703.4317689666</v>
       </c>
       <c r="P4" t="n">
-        <v>13655.63050994015</v>
+        <v>13554.4490643587</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22161.13182731355</v>
+        <v>22683.89614933816</v>
       </c>
       <c r="C6" t="n">
-        <v>22161.13182731361</v>
+        <v>22683.89614933816</v>
       </c>
       <c r="D6" t="n">
-        <v>22161.13182731361</v>
+        <v>22683.89614933816</v>
       </c>
       <c r="E6" t="n">
-        <v>-180521.7724075349</v>
+        <v>-180406.075542928</v>
       </c>
       <c r="F6" t="n">
-        <v>128466.226903169</v>
+        <v>128581.9237677758</v>
       </c>
       <c r="G6" t="n">
-        <v>126830.7206791385</v>
+        <v>126957.8564712105</v>
       </c>
       <c r="H6" t="n">
-        <v>114764.9773905309</v>
+        <v>114997.8906929947</v>
       </c>
       <c r="I6" t="n">
-        <v>128963.6843062898</v>
+        <v>129243.8558074557</v>
       </c>
       <c r="J6" t="n">
-        <v>137904.7339869458</v>
+        <v>138184.9054881118</v>
       </c>
       <c r="K6" t="n">
-        <v>137904.7339869458</v>
+        <v>138184.9054881117</v>
       </c>
       <c r="L6" t="n">
-        <v>137904.7339869459</v>
+        <v>138184.9054881118</v>
       </c>
       <c r="M6" t="n">
-        <v>134299.2865697532</v>
+        <v>134511.7437797681</v>
       </c>
       <c r="N6" t="n">
-        <v>134299.2865697532</v>
+        <v>134511.7437797682</v>
       </c>
       <c r="O6" t="n">
-        <v>133585.5205656575</v>
+        <v>133784.5724604862</v>
       </c>
       <c r="P6" t="n">
-        <v>126576.990108026</v>
+        <v>126678.1715536075</v>
       </c>
     </row>
   </sheetData>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
         <v>48.17692151102388</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>46.23037922775021</v>
       </c>
       <c r="N11" t="n">
         <v>48.17692151102388</v>
       </c>
       <c r="O11" t="n">
+        <v>46.23037922775021</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>48.17692151102388</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35574,16 +35574,16 @@
         <v>48.17692151102388</v>
       </c>
       <c r="M13" t="n">
+        <v>46.23037922775021</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
         <v>48.17692151102388</v>
-      </c>
-      <c r="N13" t="n">
-        <v>46.2303792277502</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>48.17692151102388</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>48.17692151102388</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>42.50510461665709</v>
+        <v>28.50136018010951</v>
       </c>
       <c r="N14" t="n">
         <v>33.62295448895003</v>
       </c>
       <c r="O14" t="n">
-        <v>18.27924163316698</v>
+        <v>32.28298606971453</v>
       </c>
       <c r="P14" t="n">
-        <v>48.17692151102388</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>48.17692151102388</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>32.70231187838053</v>
+        <v>32.70231187838041</v>
       </c>
       <c r="M15" t="n">
         <v>48.17692151102388</v>
@@ -35887,7 +35887,7 @@
         <v>57.71444758686695</v>
       </c>
       <c r="L17" t="n">
-        <v>32.69344199931075</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>28.50136018010951</v>
@@ -35896,7 +35896,7 @@
         <v>33.62295448895003</v>
       </c>
       <c r="O17" t="n">
-        <v>18.27924163316698</v>
+        <v>50.97268363247773</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>18.6896975627633</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>32.70231187838041</v>
+        <v>51.39200944114371</v>
       </c>
       <c r="M18" t="n">
         <v>57.71444758686695</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>54.55600354736285</v>
       </c>
       <c r="L19" t="n">
         <v>57.71444758686695</v>
       </c>
       <c r="M19" t="n">
-        <v>57.71444758686695</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>57.71444758686695</v>
       </c>
       <c r="O19" t="n">
-        <v>55.38255071467031</v>
+        <v>57.71444758686695</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.826547167307443</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>113.1672294409414</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>134.1518303913387</v>
       </c>
       <c r="L20" t="n">
-        <v>134.1518303913387</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>134.1518303913387</v>
+        <v>28.50136018010951</v>
       </c>
       <c r="N20" t="n">
         <v>134.1518303913387</v>
       </c>
       <c r="O20" t="n">
-        <v>18.27924163316698</v>
+        <v>121.2147951862187</v>
       </c>
       <c r="P20" t="n">
-        <v>110.452312782764</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>73.77195013441202</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>134.1518303913387</v>
       </c>
       <c r="L21" t="n">
-        <v>86.33215179333109</v>
+        <v>32.70231187838041</v>
       </c>
       <c r="M21" t="n">
-        <v>57.71444758686695</v>
+        <v>134.1518303913387</v>
       </c>
       <c r="N21" t="n">
-        <v>134.1518303913387</v>
+        <v>73.79616406337587</v>
       </c>
       <c r="O21" t="n">
         <v>45.06483529265961</v>
       </c>
       <c r="P21" t="n">
-        <v>134.1518303913387</v>
+        <v>111.3200735728538</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36279,16 +36279,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>54.55600354736285</v>
       </c>
       <c r="L22" t="n">
-        <v>67.57922873092767</v>
+        <v>125.9002092457669</v>
       </c>
       <c r="M22" t="n">
         <v>134.1518303913387</v>
       </c>
       <c r="N22" t="n">
-        <v>134.1518303913387</v>
+        <v>21.27484632913663</v>
       </c>
       <c r="O22" t="n">
         <v>118.0501359002075</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>113.1672294409414</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>167.7747848802885</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>153.4792464634936</v>
       </c>
       <c r="M23" t="n">
+        <v>28.50136018010951</v>
+      </c>
+      <c r="N23" t="n">
+        <v>33.62295448895003</v>
+      </c>
+      <c r="O23" t="n">
         <v>167.7747848802885</v>
       </c>
-      <c r="N23" t="n">
-        <v>161.29078472733</v>
-      </c>
-      <c r="O23" t="n">
-        <v>18.27924163316698</v>
-      </c>
       <c r="P23" t="n">
-        <v>167.7747848802885</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>149.2007642129976</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>73.77195013441202</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>167.7747848802885</v>
       </c>
       <c r="L24" t="n">
-        <v>78.42339349618017</v>
+        <v>167.7747848802885</v>
       </c>
       <c r="M24" t="n">
         <v>57.71444758686695</v>
@@ -36452,10 +36452,10 @@
         <v>45.06483529265961</v>
       </c>
       <c r="P24" t="n">
-        <v>167.7747848802885</v>
+        <v>152.1953436305921</v>
       </c>
       <c r="Q24" t="n">
-        <v>167.7747848802885</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>54.55600354736278</v>
+        <v>54.55600354736285</v>
       </c>
       <c r="L25" t="n">
         <v>125.9002092457669</v>
@@ -36595,25 +36595,25 @@
         <v>113.1672294409414</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>167.7747848802885</v>
       </c>
       <c r="L26" t="n">
-        <v>167.7747848802885</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>167.7747848802885</v>
       </c>
       <c r="N26" t="n">
-        <v>167.7747848802885</v>
+        <v>33.62295448895003</v>
       </c>
       <c r="O26" t="n">
-        <v>47.82877625226467</v>
+        <v>32.77984243060544</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>149.2007642129976</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>73.77195013441202</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>167.7747848802885</v>
       </c>
       <c r="L27" t="n">
-        <v>167.7747848802885</v>
+        <v>78.42339349618013</v>
       </c>
       <c r="M27" t="n">
         <v>57.71444758686695</v>
@@ -36689,10 +36689,10 @@
         <v>45.06483529265961</v>
       </c>
       <c r="P27" t="n">
-        <v>78.42339349618013</v>
+        <v>167.7747848802885</v>
       </c>
       <c r="Q27" t="n">
-        <v>167.7747848802885</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>54.55600354736278</v>
+        <v>54.55600354736285</v>
       </c>
       <c r="L28" t="n">
         <v>125.9002092457669</v>
@@ -36835,22 +36835,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>167.7747848802885</v>
+        <v>160.9960056932062</v>
       </c>
       <c r="M29" t="n">
         <v>167.7747848802885</v>
       </c>
       <c r="N29" t="n">
-        <v>33.62295448895003</v>
+        <v>167.7747848802885</v>
       </c>
       <c r="O29" t="n">
-        <v>145.9470718715469</v>
+        <v>167.7747848802885</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>149.2007642129976</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>73.77195013441202</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>167.7747848802885</v>
       </c>
       <c r="L30" t="n">
         <v>32.70231187838041</v>
@@ -36923,13 +36923,13 @@
         <v>73.79616406337587</v>
       </c>
       <c r="O30" t="n">
-        <v>164.5578670448714</v>
+        <v>90.78591691045932</v>
       </c>
       <c r="P30" t="n">
         <v>167.7747848802885</v>
       </c>
       <c r="Q30" t="n">
-        <v>167.7747848802885</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>54.55600354736285</v>
       </c>
       <c r="L31" t="n">
-        <v>125.9002092457668</v>
+        <v>125.9002092457669</v>
       </c>
       <c r="M31" t="n">
         <v>143.2381818695773</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>113.1672294409414</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>167.7747848802885</v>
+        <v>127.3730512042561</v>
       </c>
       <c r="L32" t="n">
         <v>167.7747848802885</v>
       </c>
       <c r="M32" t="n">
-        <v>163.7013650104361</v>
+        <v>167.7747848802885</v>
       </c>
       <c r="N32" t="n">
         <v>33.62295448895003</v>
       </c>
       <c r="O32" t="n">
-        <v>18.27924163316698</v>
+        <v>167.7747848802885</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
         <v>167.7747848802885</v>
-      </c>
-      <c r="L33" t="n">
-        <v>32.70231187838041</v>
       </c>
       <c r="M33" t="n">
         <v>167.7747848802885</v>
@@ -37160,7 +37160,7 @@
         <v>73.79616406337587</v>
       </c>
       <c r="O33" t="n">
-        <v>54.49752975144986</v>
+        <v>87.19984162983023</v>
       </c>
       <c r="P33" t="n">
         <v>167.7747848802885</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>54.55600354736285</v>
+        <v>54.55600354736278</v>
       </c>
       <c r="L34" t="n">
         <v>125.9002092457669</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>113.1672294409414</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>69.29406427166225</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>28.50136018010951</v>
+      </c>
+      <c r="N35" t="n">
+        <v>86.26426628534649</v>
+      </c>
+      <c r="O35" t="n">
         <v>119.5978633692647</v>
       </c>
-      <c r="M35" t="n">
+      <c r="P35" t="n">
         <v>119.5978633692647</v>
       </c>
-      <c r="N35" t="n">
-        <v>33.62295448895003</v>
-      </c>
-      <c r="O35" t="n">
-        <v>18.27924163316698</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>119.5978633692647</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37388,19 +37388,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>57.81225682078212</v>
+        <v>119.5978633692647</v>
       </c>
       <c r="M36" t="n">
-        <v>57.71444758686695</v>
+        <v>119.5978633692647</v>
       </c>
       <c r="N36" t="n">
-        <v>119.5978633692647</v>
+        <v>73.79616406337587</v>
       </c>
       <c r="O36" t="n">
         <v>45.06483529265961</v>
       </c>
       <c r="P36" t="n">
-        <v>119.5978633692647</v>
+        <v>41.73054034427324</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>54.55600354736285</v>
       </c>
       <c r="L37" t="n">
         <v>119.5978633692647</v>
       </c>
       <c r="M37" t="n">
-        <v>119.5978633692647</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>119.5978633692647</v>
+        <v>104.1011935802806</v>
       </c>
       <c r="O37" t="n">
-        <v>114.7656264654561</v>
+        <v>118.0501359002075</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>77.25402017613453</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>113.1672294409414</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>119.5978633692647</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>96.48638483228903</v>
+        <v>28.50136018010951</v>
       </c>
       <c r="N38" t="n">
-        <v>119.5978633692647</v>
+        <v>33.62295448895003</v>
       </c>
       <c r="O38" t="n">
-        <v>18.27924163316698</v>
+        <v>59.07194572471975</v>
       </c>
       <c r="P38" t="n">
         <v>119.5978633692647</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>119.5978633692647</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>73.77195013441202</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>32.70231187838041</v>
+        <v>119.5978633692647</v>
       </c>
       <c r="M39" t="n">
         <v>119.5978633692647</v>
       </c>
       <c r="N39" t="n">
-        <v>119.5978633692647</v>
+        <v>73.79616406337587</v>
       </c>
       <c r="O39" t="n">
-        <v>82.06331458707562</v>
+        <v>70.15522206919893</v>
       </c>
       <c r="P39" t="n">
-        <v>119.5978633692647</v>
+        <v>16.64015356773396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>54.55600354736285</v>
       </c>
       <c r="L40" t="n">
-        <v>39.05933375837871</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>119.5978633692647</v>
+        <v>104.1011935802806</v>
       </c>
       <c r="N40" t="n">
         <v>119.5978633692647</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>43.48914030947657</v>
+        <v>110.0603372934218</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -37786,19 +37786,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>28.50136018010951</v>
+        <v>110.0603372934218</v>
       </c>
       <c r="N41" t="n">
-        <v>33.62295448895003</v>
+        <v>87.33421334536914</v>
       </c>
       <c r="O41" t="n">
-        <v>110.0603372934218</v>
+        <v>18.27924163316698</v>
       </c>
       <c r="P41" t="n">
         <v>110.0603372934218</v>
       </c>
       <c r="Q41" t="n">
-        <v>110.0603372934218</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37862,16 +37862,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>110.0603372934218</v>
+        <v>84.16318062171509</v>
       </c>
       <c r="M42" t="n">
-        <v>96.81279291592242</v>
+        <v>57.71444758686695</v>
       </c>
       <c r="N42" t="n">
         <v>73.79616406337587</v>
       </c>
       <c r="O42" t="n">
-        <v>45.06483529265961</v>
+        <v>110.0603372934218</v>
       </c>
       <c r="P42" t="n">
         <v>110.0603372934218</v>
@@ -37941,7 +37941,7 @@
         <v>28.35943480240153</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>110.0603372934218</v>
       </c>
       <c r="M43" t="n">
         <v>110.0603372934218</v>
@@ -37950,7 +37950,7 @@
         <v>110.0603372934218</v>
       </c>
       <c r="O43" t="n">
-        <v>110.0603372934218</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>77.25402017613453</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>33.62295448895003</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>19.10680395294882</v>
       </c>
       <c r="L44" t="n">
-        <v>33.62295448895003</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>28.50136018010951</v>
@@ -38029,10 +38029,10 @@
         <v>33.62295448895003</v>
       </c>
       <c r="O44" t="n">
-        <v>33.62295448895003</v>
+        <v>18.27924163316698</v>
       </c>
       <c r="P44" t="n">
-        <v>3.76309109716577</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>33.62295448895003</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>33.62295448895003</v>
+        <v>32.26445127727529</v>
       </c>
       <c r="N46" t="n">
         <v>33.62295448895003</v>
       </c>
       <c r="O46" t="n">
-        <v>32.26445127727528</v>
+        <v>33.62295448895003</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>33.62295448895003</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
